--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-09.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-04-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="200">
   <si>
     <t>League</t>
   </si>
@@ -614,36 +614,6 @@
   </si>
   <si>
     <t>Universitario de Deportes</t>
-  </si>
-  <si>
-    <t>33175804</t>
-  </si>
-  <si>
-    <t>33175821</t>
-  </si>
-  <si>
-    <t>1.227327440</t>
-  </si>
-  <si>
-    <t>1.227327350</t>
-  </si>
-  <si>
-    <t>1.227327485</t>
-  </si>
-  <si>
-    <t>1.227327395</t>
-  </si>
-  <si>
-    <t>1.227327524</t>
-  </si>
-  <si>
-    <t>1.227327434</t>
-  </si>
-  <si>
-    <t>1.227327449</t>
-  </si>
-  <si>
-    <t>1.227327359</t>
   </si>
 </sst>
 </file>
@@ -1227,28 +1197,28 @@
         <v>1.76</v>
       </c>
       <c r="H2">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="I2">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J2">
         <v>3.75</v>
       </c>
       <c r="K2">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L2">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="M2">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="N2">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="O2">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="P2">
         <v>2.06</v>
@@ -1266,112 +1236,112 @@
         <v>10</v>
       </c>
       <c r="U2">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="V2">
-        <v>13</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
         <v>980</v>
       </c>
       <c r="X2">
-        <v>4</v>
+        <v>1.81</v>
       </c>
       <c r="Y2">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="Z2">
-        <v>4.2</v>
+        <v>1.81</v>
       </c>
       <c r="AA2">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB2">
-        <v>5.6</v>
+        <v>1.46</v>
       </c>
       <c r="AC2">
-        <v>9</v>
+        <v>980</v>
       </c>
       <c r="AD2">
         <v>7.8</v>
       </c>
       <c r="AE2">
-        <v>11</v>
+        <v>980</v>
       </c>
       <c r="AF2">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="AG2">
         <v>980</v>
       </c>
       <c r="AH2">
-        <v>4.1</v>
+        <v>1.81</v>
       </c>
       <c r="AI2">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ2">
         <v>7.8</v>
       </c>
       <c r="AK2">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL2">
         <v>8.6</v>
       </c>
       <c r="AM2">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AN2">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="AO2">
         <v>980</v>
       </c>
       <c r="AP2">
-        <v>4.1</v>
+        <v>1.81</v>
       </c>
       <c r="AQ2">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AR2">
-        <v>3.55</v>
+        <v>1.81</v>
       </c>
       <c r="AS2">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AT2">
-        <v>3.65</v>
+        <v>1.81</v>
       </c>
       <c r="AU2">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AV2">
-        <v>3.95</v>
+        <v>1.81</v>
       </c>
       <c r="AW2">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AX2">
-        <v>4.2</v>
+        <v>1.81</v>
       </c>
       <c r="AY2">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AZ2">
-        <v>3.3</v>
+        <v>1.81</v>
       </c>
       <c r="BA2">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="BB2">
-        <v>4.1</v>
+        <v>1.81</v>
       </c>
       <c r="BC2">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="BD2">
-        <v>4.3</v>
+        <v>1.81</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1418,64 +1388,64 @@
         <v>149</v>
       </c>
       <c r="F3">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="G3">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>1.52</v>
       </c>
       <c r="I3">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="J3">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K3">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="L3">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="M3">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="N3">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="O3">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="P3">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q3">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R3">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="S3">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="T3">
-        <v>14</v>
+        <v>4.9</v>
       </c>
       <c r="U3">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="V3">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="W3">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X3">
-        <v>7.6</v>
+        <v>4</v>
       </c>
       <c r="Y3">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z3">
         <v>12</v>
@@ -1508,7 +1478,7 @@
         <v>18.5</v>
       </c>
       <c r="AJ3">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AK3">
         <v>65</v>
@@ -1550,19 +1520,19 @@
         <v>120</v>
       </c>
       <c r="AX3">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AY3">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="BA3">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="BB3">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BC3">
         <v>9</v>
@@ -1618,7 +1588,7 @@
         <v>1.49</v>
       </c>
       <c r="G4">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="H4">
         <v>6.6</v>
@@ -1630,7 +1600,7 @@
         <v>4.5</v>
       </c>
       <c r="K4">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L4">
         <v>2.08</v>
@@ -1717,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="AN4">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO4">
         <v>27</v>
@@ -1815,7 +1785,7 @@
         <v>1.47</v>
       </c>
       <c r="G5">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -1827,7 +1797,7 @@
         <v>4.5</v>
       </c>
       <c r="K5">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L5">
         <v>1.83</v>
@@ -1860,19 +1830,19 @@
         <v>15.5</v>
       </c>
       <c r="V5">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="W5">
         <v>25</v>
       </c>
       <c r="X5">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="Y5">
         <v>80</v>
       </c>
       <c r="Z5">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AA5">
         <v>370</v>
@@ -1881,7 +1851,7 @@
         <v>6.2</v>
       </c>
       <c r="AC5">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD5">
         <v>9.4</v>
@@ -1890,13 +1860,13 @@
         <v>12</v>
       </c>
       <c r="AF5">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AG5">
         <v>38</v>
       </c>
       <c r="AH5">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AI5">
         <v>180</v>
@@ -1905,7 +1875,7 @@
         <v>6.8</v>
       </c>
       <c r="AK5">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AL5">
         <v>9.199999999999999</v>
@@ -1914,13 +1884,13 @@
         <v>12</v>
       </c>
       <c r="AN5">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AO5">
         <v>36</v>
       </c>
       <c r="AP5">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AQ5">
         <v>170</v>
@@ -1938,31 +1908,31 @@
         <v>19.5</v>
       </c>
       <c r="AV5">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AW5">
         <v>55</v>
       </c>
       <c r="AX5">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AY5">
         <v>260</v>
       </c>
       <c r="AZ5">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="BA5">
         <v>9.4</v>
       </c>
       <c r="BB5">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="BC5">
         <v>300</v>
       </c>
       <c r="BD5">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -2009,19 +1979,19 @@
         <v>152</v>
       </c>
       <c r="F6">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G6">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="H6">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="I6">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J6">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K6">
         <v>5.2</v>
@@ -2030,16 +2000,16 @@
         <v>2.12</v>
       </c>
       <c r="M6">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="N6">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O6">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="P6">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2048,13 +2018,13 @@
         <v>1.92</v>
       </c>
       <c r="S6">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T6">
         <v>15.5</v>
       </c>
       <c r="U6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V6">
         <v>21</v>
@@ -2063,70 +2033,70 @@
         <v>32</v>
       </c>
       <c r="X6">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="Y6">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Z6">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="AA6">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AB6">
+        <v>7.6</v>
+      </c>
+      <c r="AC6">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD6">
+        <v>9.6</v>
+      </c>
+      <c r="AE6">
+        <v>11.5</v>
+      </c>
+      <c r="AF6">
+        <v>5.8</v>
+      </c>
+      <c r="AG6">
+        <v>36</v>
+      </c>
+      <c r="AH6">
+        <v>6.4</v>
+      </c>
+      <c r="AI6">
+        <v>140</v>
+      </c>
+      <c r="AJ6">
         <v>7.8</v>
       </c>
-      <c r="AC6">
+      <c r="AK6">
         <v>9.4</v>
       </c>
-      <c r="AD6">
-        <v>9.4</v>
-      </c>
-      <c r="AE6">
-        <v>13.5</v>
-      </c>
-      <c r="AF6">
-        <v>23</v>
-      </c>
-      <c r="AG6">
-        <v>34</v>
-      </c>
-      <c r="AH6">
-        <v>4.8</v>
-      </c>
-      <c r="AI6">
+      <c r="AL6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM6">
+        <v>10.5</v>
+      </c>
+      <c r="AN6">
+        <v>21</v>
+      </c>
+      <c r="AO6">
+        <v>32</v>
+      </c>
+      <c r="AP6">
+        <v>6.2</v>
+      </c>
+      <c r="AQ6">
         <v>130</v>
-      </c>
-      <c r="AJ6">
-        <v>8</v>
-      </c>
-      <c r="AK6">
-        <v>9.6</v>
-      </c>
-      <c r="AL6">
-        <v>8.6</v>
-      </c>
-      <c r="AM6">
-        <v>12.5</v>
-      </c>
-      <c r="AN6">
-        <v>20</v>
-      </c>
-      <c r="AO6">
-        <v>30</v>
-      </c>
-      <c r="AP6">
-        <v>4.7</v>
-      </c>
-      <c r="AQ6">
-        <v>120</v>
       </c>
       <c r="AR6">
         <v>11.5</v>
       </c>
       <c r="AS6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT6">
         <v>13.5</v>
@@ -2135,31 +2105,31 @@
         <v>19.5</v>
       </c>
       <c r="AV6">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="AW6">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AX6">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="AY6">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AZ6">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="BA6">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="BB6">
-        <v>4.8</v>
+        <v>6.4</v>
       </c>
       <c r="BC6">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="BD6">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -2206,16 +2176,16 @@
         <v>153</v>
       </c>
       <c r="F7">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="G7">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H7">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="I7">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="J7">
         <v>3.05</v>
@@ -2245,7 +2215,7 @@
         <v>1.84</v>
       </c>
       <c r="S7">
-        <v>2.48</v>
+        <v>2.02</v>
       </c>
       <c r="T7">
         <v>3.15</v>
@@ -2254,109 +2224,109 @@
         <v>11.5</v>
       </c>
       <c r="V7">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="W7">
         <v>12</v>
       </c>
       <c r="X7">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Y7">
         <v>23</v>
       </c>
       <c r="Z7">
-        <v>3.45</v>
+        <v>2.3</v>
       </c>
       <c r="AA7">
         <v>1000</v>
       </c>
       <c r="AB7">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AC7">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD7">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE7">
         <v>8.800000000000001</v>
       </c>
       <c r="AF7">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AG7">
         <v>17</v>
       </c>
       <c r="AH7">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AI7">
         <v>1000</v>
       </c>
       <c r="AJ7">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AK7">
         <v>21</v>
       </c>
       <c r="AL7">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AM7">
         <v>16.5</v>
       </c>
       <c r="AN7">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="AO7">
         <v>26</v>
       </c>
       <c r="AP7">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="AQ7">
         <v>1000</v>
       </c>
       <c r="AR7">
+        <v>4</v>
+      </c>
+      <c r="AS7">
+        <v>1000</v>
+      </c>
+      <c r="AT7">
         <v>3.95</v>
-      </c>
-      <c r="AS7">
-        <v>1000</v>
-      </c>
-      <c r="AT7">
-        <v>3.85</v>
       </c>
       <c r="AU7">
         <v>46</v>
       </c>
       <c r="AV7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AW7">
         <v>1000</v>
       </c>
       <c r="AX7">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="AY7">
         <v>1000</v>
       </c>
       <c r="AZ7">
-        <v>3.4</v>
+        <v>2.24</v>
       </c>
       <c r="BA7">
         <v>48</v>
       </c>
       <c r="BB7">
-        <v>3.4</v>
+        <v>2.26</v>
       </c>
       <c r="BC7">
         <v>1000</v>
       </c>
       <c r="BD7">
-        <v>2.04</v>
+        <v>2.34</v>
       </c>
       <c r="BE7">
         <v>1000</v>
@@ -2403,157 +2373,157 @@
         <v>154</v>
       </c>
       <c r="F8">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="G8">
-        <v>8.199999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="H8">
-        <v>2.22</v>
+        <v>8</v>
       </c>
       <c r="I8">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="J8">
-        <v>2.22</v>
+        <v>4.5</v>
       </c>
       <c r="K8">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="L8">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>2.38</v>
       </c>
       <c r="N8">
-        <v>1.03</v>
+        <v>1.72</v>
       </c>
       <c r="O8">
+        <v>1.99</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2.36</v>
+      </c>
+      <c r="R8">
+        <v>1.73</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>4.3</v>
+      </c>
+      <c r="U8">
+        <v>980</v>
+      </c>
+      <c r="V8">
         <v>4.6</v>
       </c>
-      <c r="P8">
-        <v>1.15</v>
-      </c>
-      <c r="Q8">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="R8">
-        <v>1.15</v>
-      </c>
-      <c r="S8">
-        <v>7.8</v>
-      </c>
-      <c r="T8">
-        <v>1.48</v>
-      </c>
-      <c r="U8">
-        <v>980</v>
-      </c>
-      <c r="V8">
-        <v>1.1</v>
-      </c>
       <c r="W8">
         <v>980</v>
       </c>
       <c r="X8">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="Y8">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Z8">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="AA8">
         <v>1000</v>
       </c>
       <c r="AB8">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="AC8">
         <v>980</v>
       </c>
       <c r="AD8">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="AE8">
         <v>980</v>
       </c>
       <c r="AF8">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="AG8">
         <v>980</v>
       </c>
       <c r="AH8">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="AI8">
         <v>1000</v>
       </c>
       <c r="AJ8">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="AK8">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AL8">
-        <v>1.1</v>
+        <v>7.6</v>
       </c>
       <c r="AM8">
         <v>980</v>
       </c>
       <c r="AN8">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="AO8">
         <v>980</v>
       </c>
       <c r="AP8">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="AQ8">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AR8">
-        <v>1.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AS8">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AT8">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="AU8">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AV8">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="AW8">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AX8">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="AY8">
         <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="BA8">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="BB8">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="BC8">
         <v>1000</v>
       </c>
       <c r="BD8">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="BE8">
         <v>1000</v>
@@ -2660,7 +2630,7 @@
         <v>24</v>
       </c>
       <c r="Z9">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA9">
         <v>60</v>
@@ -2684,7 +2654,7 @@
         <v>14</v>
       </c>
       <c r="AH9">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AI9">
         <v>40</v>
@@ -2708,7 +2678,7 @@
         <v>18.5</v>
       </c>
       <c r="AP9">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AQ9">
         <v>55</v>
@@ -2726,7 +2696,7 @@
         <v>30</v>
       </c>
       <c r="AV9">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AW9">
         <v>46</v>
@@ -2747,10 +2717,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="BC9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BD9">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -2797,85 +2767,85 @@
         <v>156</v>
       </c>
       <c r="F10">
-        <v>2.9</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="H10">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="I10">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="J10">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="K10">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L10">
-        <v>1.35</v>
+        <v>1.9</v>
       </c>
       <c r="M10">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
+        <v>1.83</v>
+      </c>
+      <c r="O10">
+        <v>2.1</v>
+      </c>
+      <c r="P10">
+        <v>1.16</v>
+      </c>
+      <c r="Q10">
+        <v>7.6</v>
+      </c>
+      <c r="R10">
+        <v>1.61</v>
+      </c>
+      <c r="S10">
+        <v>1.74</v>
+      </c>
+      <c r="T10">
         <v>1.1</v>
       </c>
-      <c r="O10">
-        <v>3.9</v>
-      </c>
-      <c r="P10">
-        <v>1.15</v>
-      </c>
-      <c r="Q10">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="R10">
-        <v>1.15</v>
-      </c>
-      <c r="S10">
+      <c r="U10">
+        <v>980</v>
+      </c>
+      <c r="V10">
+        <v>1.32</v>
+      </c>
+      <c r="W10">
+        <v>980</v>
+      </c>
+      <c r="X10">
+        <v>3.65</v>
+      </c>
+      <c r="Y10">
         <v>7.8</v>
       </c>
-      <c r="T10">
-        <v>1.49</v>
-      </c>
-      <c r="U10">
-        <v>980</v>
-      </c>
-      <c r="V10">
-        <v>1.03</v>
-      </c>
-      <c r="W10">
-        <v>980</v>
-      </c>
-      <c r="X10">
-        <v>1.03</v>
-      </c>
-      <c r="Y10">
-        <v>1000</v>
-      </c>
       <c r="Z10">
-        <v>1.03</v>
+        <v>1.58</v>
       </c>
       <c r="AA10">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB10">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AC10">
         <v>980</v>
       </c>
       <c r="AD10">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AE10">
         <v>980</v>
       </c>
       <c r="AF10">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AG10">
         <v>980</v>
@@ -2884,67 +2854,67 @@
         <v>1.1</v>
       </c>
       <c r="AI10">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AJ10">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AK10">
         <v>1000</v>
       </c>
       <c r="AL10">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AM10">
         <v>980</v>
       </c>
       <c r="AN10">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AO10">
         <v>980</v>
       </c>
       <c r="AP10">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
       </c>
       <c r="AR10">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AS10">
         <v>1000</v>
       </c>
       <c r="AT10">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AU10">
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AW10">
         <v>1000</v>
       </c>
       <c r="AX10">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AY10">
         <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="BA10">
         <v>1000</v>
       </c>
       <c r="BB10">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="BC10">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="BD10">
         <v>1.1</v>
@@ -2994,13 +2964,13 @@
         <v>157</v>
       </c>
       <c r="F11">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G11">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I11">
         <v>11.5</v>
@@ -3012,49 +2982,49 @@
         <v>6.2</v>
       </c>
       <c r="L11">
-        <v>2.44</v>
+        <v>1.58</v>
       </c>
       <c r="M11">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="N11">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O11">
-        <v>1.69</v>
+        <v>2.72</v>
       </c>
       <c r="P11">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q11">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="R11">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="S11">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="T11">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="U11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V11">
-        <v>29</v>
+        <v>4.9</v>
       </c>
       <c r="W11">
         <v>980</v>
       </c>
       <c r="X11">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y11">
         <v>110</v>
       </c>
       <c r="Z11">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="AA11">
         <v>370</v>
@@ -3063,22 +3033,22 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC11">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD11">
         <v>11</v>
       </c>
       <c r="AE11">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF11">
-        <v>28</v>
+        <v>4.9</v>
       </c>
       <c r="AG11">
         <v>980</v>
       </c>
       <c r="AH11">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="AI11">
         <v>160</v>
@@ -3087,13 +3057,13 @@
         <v>8</v>
       </c>
       <c r="AK11">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AL11">
         <v>9.199999999999999</v>
       </c>
       <c r="AM11">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AN11">
         <v>21</v>
@@ -3102,7 +3072,7 @@
         <v>32</v>
       </c>
       <c r="AP11">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="AQ11">
         <v>140</v>
@@ -3111,40 +3081,40 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AS11">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AT11">
         <v>11</v>
       </c>
       <c r="AU11">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AV11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AX11">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="AY11">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AZ11">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="BA11">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="BB11">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="BC11">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="BD11">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="BE11">
         <v>1000</v>
@@ -3200,16 +3170,16 @@
         <v>3.9</v>
       </c>
       <c r="I12">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J12">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K12">
         <v>3.5</v>
       </c>
       <c r="L12">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="M12">
         <v>1.89</v>
@@ -3218,10 +3188,10 @@
         <v>2.12</v>
       </c>
       <c r="O12">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="P12">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3230,7 +3200,7 @@
         <v>1.83</v>
       </c>
       <c r="S12">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="T12">
         <v>9.199999999999999</v>
@@ -3245,13 +3215,13 @@
         <v>14</v>
       </c>
       <c r="X12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z12">
-        <v>7.4</v>
+        <v>3.2</v>
       </c>
       <c r="AA12">
         <v>90</v>
@@ -3260,37 +3230,37 @@
         <v>7.2</v>
       </c>
       <c r="AC12">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12">
         <v>7</v>
       </c>
       <c r="AE12">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AF12">
         <v>14.5</v>
       </c>
       <c r="AG12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH12">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AI12">
         <v>60</v>
       </c>
       <c r="AJ12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AL12">
         <v>10</v>
       </c>
       <c r="AM12">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AN12">
         <v>17.5</v>
@@ -3299,49 +3269,49 @@
         <v>23</v>
       </c>
       <c r="AP12">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AQ12">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AR12">
         <v>24</v>
       </c>
       <c r="AS12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT12">
-        <v>7.4</v>
+        <v>21</v>
       </c>
       <c r="AU12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV12">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="AW12">
         <v>55</v>
       </c>
       <c r="AX12">
-        <v>7.2</v>
+        <v>2.82</v>
       </c>
       <c r="AY12">
         <v>160</v>
       </c>
       <c r="AZ12">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA12">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="BB12">
-        <v>7.4</v>
+        <v>4.9</v>
       </c>
       <c r="BC12">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="BD12">
-        <v>4</v>
+        <v>2.84</v>
       </c>
       <c r="BE12">
         <v>1000</v>
@@ -3388,16 +3358,16 @@
         <v>159</v>
       </c>
       <c r="F13">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="G13">
-        <v>4.6</v>
+        <v>3.35</v>
       </c>
       <c r="H13">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="I13">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="J13">
         <v>3.2</v>
@@ -3406,31 +3376,31 @@
         <v>3.75</v>
       </c>
       <c r="L13">
-        <v>1.27</v>
+        <v>1.85</v>
       </c>
       <c r="M13">
-        <v>36</v>
+        <v>2.12</v>
       </c>
       <c r="N13">
-        <v>1.06</v>
+        <v>1.89</v>
       </c>
       <c r="O13">
-        <v>4.6</v>
+        <v>2.18</v>
       </c>
       <c r="P13">
-        <v>1.15</v>
+        <v>1.76</v>
       </c>
       <c r="Q13">
-        <v>7.8</v>
+        <v>1.9</v>
       </c>
       <c r="R13">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="S13">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="T13">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="U13">
         <v>980</v>
@@ -3442,19 +3412,19 @@
         <v>980</v>
       </c>
       <c r="X13">
-        <v>1.1</v>
+        <v>13.5</v>
       </c>
       <c r="Y13">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Z13">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="AA13">
         <v>1000</v>
       </c>
       <c r="AB13">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC13">
         <v>980</v>
@@ -3472,73 +3442,73 @@
         <v>980</v>
       </c>
       <c r="AH13">
-        <v>1.1</v>
+        <v>2.48</v>
       </c>
       <c r="AI13">
         <v>1000</v>
       </c>
       <c r="AJ13">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="AK13">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL13">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="AM13">
         <v>980</v>
       </c>
       <c r="AN13">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="AO13">
         <v>980</v>
       </c>
       <c r="AP13">
-        <v>1.1</v>
+        <v>2.06</v>
       </c>
       <c r="AQ13">
         <v>1000</v>
       </c>
       <c r="AR13">
-        <v>1.1</v>
+        <v>1.98</v>
       </c>
       <c r="AS13">
         <v>1000</v>
       </c>
       <c r="AT13">
-        <v>1.1</v>
+        <v>2.06</v>
       </c>
       <c r="AU13">
         <v>1000</v>
       </c>
       <c r="AV13">
-        <v>1.1</v>
+        <v>1.98</v>
       </c>
       <c r="AW13">
         <v>1000</v>
       </c>
       <c r="AX13">
-        <v>9</v>
+        <v>1.98</v>
       </c>
       <c r="AY13">
         <v>1000</v>
       </c>
       <c r="AZ13">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="BA13">
         <v>1000</v>
       </c>
       <c r="BB13">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="BC13">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="BD13">
-        <v>1.1</v>
+        <v>1.98</v>
       </c>
       <c r="BE13">
         <v>1000</v>
@@ -3585,79 +3555,79 @@
         <v>160</v>
       </c>
       <c r="F14">
+        <v>2.04</v>
+      </c>
+      <c r="G14">
+        <v>2.22</v>
+      </c>
+      <c r="H14">
+        <v>3.7</v>
+      </c>
+      <c r="I14">
+        <v>4.3</v>
+      </c>
+      <c r="J14">
+        <v>3.4</v>
+      </c>
+      <c r="K14">
+        <v>4.1</v>
+      </c>
+      <c r="L14">
+        <v>1.84</v>
+      </c>
+      <c r="M14">
+        <v>2.06</v>
+      </c>
+      <c r="N14">
         <v>1.95</v>
       </c>
-      <c r="G14">
-        <v>1000</v>
-      </c>
-      <c r="H14">
-        <v>3.3</v>
-      </c>
-      <c r="I14">
-        <v>990</v>
-      </c>
-      <c r="J14">
-        <v>1.2</v>
-      </c>
-      <c r="K14">
-        <v>5.5</v>
-      </c>
-      <c r="L14">
-        <v>1.27</v>
-      </c>
-      <c r="M14">
-        <v>100</v>
-      </c>
-      <c r="N14">
-        <v>1.03</v>
-      </c>
       <c r="O14">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="P14">
-        <v>1.15</v>
+        <v>1.82</v>
       </c>
       <c r="Q14">
-        <v>7.8</v>
+        <v>1.97</v>
       </c>
       <c r="R14">
-        <v>1.15</v>
+        <v>2.04</v>
       </c>
       <c r="S14">
-        <v>8.199999999999999</v>
+        <v>2.22</v>
       </c>
       <c r="T14">
-        <v>1.49</v>
+        <v>5.2</v>
       </c>
       <c r="U14">
         <v>980</v>
       </c>
       <c r="V14">
-        <v>1.03</v>
+        <v>5.3</v>
       </c>
       <c r="W14">
         <v>980</v>
       </c>
       <c r="X14">
-        <v>1.03</v>
+        <v>3.7</v>
       </c>
       <c r="Y14">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z14">
-        <v>1.03</v>
+        <v>2.82</v>
       </c>
       <c r="AA14">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB14">
-        <v>1.03</v>
+        <v>4.3</v>
       </c>
       <c r="AC14">
         <v>980</v>
       </c>
       <c r="AD14">
-        <v>1.03</v>
+        <v>6.6</v>
       </c>
       <c r="AE14">
         <v>980</v>
@@ -3669,16 +3639,16 @@
         <v>980</v>
       </c>
       <c r="AH14">
-        <v>1.03</v>
+        <v>2.76</v>
       </c>
       <c r="AI14">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ14">
-        <v>1.03</v>
+        <v>5</v>
       </c>
       <c r="AK14">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AL14">
         <v>9</v>
@@ -3687,55 +3657,55 @@
         <v>980</v>
       </c>
       <c r="AN14">
-        <v>1.03</v>
+        <v>3.45</v>
       </c>
       <c r="AO14">
         <v>980</v>
       </c>
       <c r="AP14">
-        <v>1.03</v>
+        <v>2.8</v>
       </c>
       <c r="AQ14">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AR14">
-        <v>1.03</v>
+        <v>3.6</v>
       </c>
       <c r="AS14">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AT14">
-        <v>1.03</v>
+        <v>3.55</v>
       </c>
       <c r="AU14">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AV14">
-        <v>1.03</v>
+        <v>2.72</v>
       </c>
       <c r="AW14">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AX14">
-        <v>1.03</v>
+        <v>2.84</v>
       </c>
       <c r="AY14">
         <v>1000</v>
       </c>
       <c r="AZ14">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="BA14">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="BB14">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="BC14">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="BD14">
-        <v>1.1</v>
+        <v>2.92</v>
       </c>
       <c r="BE14">
         <v>1000</v>
@@ -3782,157 +3752,157 @@
         <v>161</v>
       </c>
       <c r="F15">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>1.78</v>
       </c>
       <c r="I15">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="J15">
         <v>3.4</v>
       </c>
       <c r="K15">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="L15">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>1.03</v>
+        <v>1.77</v>
       </c>
       <c r="O15">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>1.16</v>
+        <v>1.73</v>
       </c>
       <c r="Q15">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="R15">
         <v>1.16</v>
       </c>
       <c r="S15">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="T15">
+        <v>12.5</v>
+      </c>
+      <c r="U15">
+        <v>980</v>
+      </c>
+      <c r="V15">
+        <v>3.6</v>
+      </c>
+      <c r="W15">
+        <v>980</v>
+      </c>
+      <c r="X15">
+        <v>4</v>
+      </c>
+      <c r="Y15">
+        <v>14.5</v>
+      </c>
+      <c r="Z15">
+        <v>4.5</v>
+      </c>
+      <c r="AA15">
+        <v>25</v>
+      </c>
+      <c r="AB15">
+        <v>4.4</v>
+      </c>
+      <c r="AC15">
+        <v>980</v>
+      </c>
+      <c r="AD15">
+        <v>3.45</v>
+      </c>
+      <c r="AE15">
+        <v>980</v>
+      </c>
+      <c r="AF15">
+        <v>3.6</v>
+      </c>
+      <c r="AG15">
+        <v>980</v>
+      </c>
+      <c r="AH15">
+        <v>4.4</v>
+      </c>
+      <c r="AI15">
+        <v>23</v>
+      </c>
+      <c r="AJ15">
+        <v>4.9</v>
+      </c>
+      <c r="AK15">
+        <v>1000</v>
+      </c>
+      <c r="AL15">
+        <v>4.4</v>
+      </c>
+      <c r="AM15">
+        <v>980</v>
+      </c>
+      <c r="AN15">
+        <v>2.08</v>
+      </c>
+      <c r="AO15">
+        <v>980</v>
+      </c>
+      <c r="AP15">
+        <v>4.8</v>
+      </c>
+      <c r="AQ15">
+        <v>1000</v>
+      </c>
+      <c r="AR15">
+        <v>1.28</v>
+      </c>
+      <c r="AS15">
+        <v>1000</v>
+      </c>
+      <c r="AT15">
+        <v>1.73</v>
+      </c>
+      <c r="AU15">
+        <v>1000</v>
+      </c>
+      <c r="AV15">
         <v>1.49</v>
       </c>
-      <c r="U15">
-        <v>980</v>
-      </c>
-      <c r="V15">
-        <v>1.1</v>
-      </c>
-      <c r="W15">
-        <v>980</v>
-      </c>
-      <c r="X15">
-        <v>1.1</v>
-      </c>
-      <c r="Y15">
-        <v>1000</v>
-      </c>
-      <c r="Z15">
-        <v>1.1</v>
-      </c>
-      <c r="AA15">
-        <v>1000</v>
-      </c>
-      <c r="AB15">
-        <v>1.1</v>
-      </c>
-      <c r="AC15">
-        <v>980</v>
-      </c>
-      <c r="AD15">
-        <v>1.1</v>
-      </c>
-      <c r="AE15">
-        <v>980</v>
-      </c>
-      <c r="AF15">
-        <v>1.1</v>
-      </c>
-      <c r="AG15">
-        <v>980</v>
-      </c>
-      <c r="AH15">
-        <v>1.1</v>
-      </c>
-      <c r="AI15">
-        <v>1000</v>
-      </c>
-      <c r="AJ15">
-        <v>1.1</v>
-      </c>
-      <c r="AK15">
-        <v>1000</v>
-      </c>
-      <c r="AL15">
-        <v>1.1</v>
-      </c>
-      <c r="AM15">
-        <v>980</v>
-      </c>
-      <c r="AN15">
-        <v>1.1</v>
-      </c>
-      <c r="AO15">
-        <v>980</v>
-      </c>
-      <c r="AP15">
-        <v>1.1</v>
-      </c>
-      <c r="AQ15">
-        <v>1000</v>
-      </c>
-      <c r="AR15">
-        <v>1.1</v>
-      </c>
-      <c r="AS15">
-        <v>1000</v>
-      </c>
-      <c r="AT15">
-        <v>1.1</v>
-      </c>
-      <c r="AU15">
-        <v>1000</v>
-      </c>
-      <c r="AV15">
-        <v>1.1</v>
-      </c>
       <c r="AW15">
         <v>1000</v>
       </c>
       <c r="AX15">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="AY15">
         <v>1000</v>
       </c>
       <c r="AZ15">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="BA15">
         <v>1000</v>
       </c>
       <c r="BB15">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="BC15">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="BD15">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="BE15">
         <v>1000</v>
@@ -3979,157 +3949,157 @@
         <v>162</v>
       </c>
       <c r="F16">
-        <v>2.06</v>
+        <v>2.32</v>
       </c>
       <c r="G16">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="H16">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="I16">
+        <v>3.2</v>
+      </c>
+      <c r="J16">
+        <v>3.6</v>
+      </c>
+      <c r="K16">
+        <v>4.1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>2.2</v>
+      </c>
+      <c r="N16">
+        <v>1.84</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>1.72</v>
+      </c>
+      <c r="Q16">
+        <v>1.84</v>
+      </c>
+      <c r="R16">
+        <v>2.18</v>
+      </c>
+      <c r="S16">
+        <v>7.8</v>
+      </c>
+      <c r="T16">
+        <v>1.5</v>
+      </c>
+      <c r="U16">
+        <v>980</v>
+      </c>
+      <c r="V16">
+        <v>1.35</v>
+      </c>
+      <c r="W16">
+        <v>980</v>
+      </c>
+      <c r="X16">
+        <v>1.4</v>
+      </c>
+      <c r="Y16">
+        <v>24</v>
+      </c>
+      <c r="Z16">
+        <v>1.45</v>
+      </c>
+      <c r="AA16">
+        <v>60</v>
+      </c>
+      <c r="AB16">
+        <v>4.8</v>
+      </c>
+      <c r="AC16">
+        <v>980</v>
+      </c>
+      <c r="AD16">
         <v>4.2</v>
       </c>
-      <c r="J16">
-        <v>3.25</v>
-      </c>
-      <c r="K16">
-        <v>4.4</v>
-      </c>
-      <c r="L16">
-        <v>1.58</v>
-      </c>
-      <c r="M16">
-        <v>2.74</v>
-      </c>
-      <c r="N16">
-        <v>1.58</v>
-      </c>
-      <c r="O16">
-        <v>2.72</v>
-      </c>
-      <c r="P16">
-        <v>1.15</v>
-      </c>
-      <c r="Q16">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="R16">
-        <v>1.15</v>
-      </c>
-      <c r="S16">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="T16">
+      <c r="AE16">
+        <v>980</v>
+      </c>
+      <c r="AF16">
+        <v>5.1</v>
+      </c>
+      <c r="AG16">
+        <v>980</v>
+      </c>
+      <c r="AH16">
+        <v>1.43</v>
+      </c>
+      <c r="AI16">
+        <v>38</v>
+      </c>
+      <c r="AJ16">
         <v>1.49</v>
       </c>
-      <c r="U16">
-        <v>980</v>
-      </c>
-      <c r="V16">
-        <v>1.1</v>
-      </c>
-      <c r="W16">
-        <v>980</v>
-      </c>
-      <c r="X16">
-        <v>1.1</v>
-      </c>
-      <c r="Y16">
-        <v>1000</v>
-      </c>
-      <c r="Z16">
-        <v>1.1</v>
-      </c>
-      <c r="AA16">
-        <v>1000</v>
-      </c>
-      <c r="AB16">
-        <v>1.1</v>
-      </c>
-      <c r="AC16">
-        <v>980</v>
-      </c>
-      <c r="AD16">
-        <v>1.1</v>
-      </c>
-      <c r="AE16">
-        <v>980</v>
-      </c>
-      <c r="AF16">
-        <v>1.1</v>
-      </c>
-      <c r="AG16">
-        <v>980</v>
-      </c>
-      <c r="AH16">
-        <v>1.1</v>
-      </c>
-      <c r="AI16">
-        <v>1000</v>
-      </c>
-      <c r="AJ16">
-        <v>1.1</v>
-      </c>
       <c r="AK16">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL16">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="AM16">
         <v>980</v>
       </c>
       <c r="AN16">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="AO16">
         <v>980</v>
       </c>
       <c r="AP16">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="AQ16">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AR16">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="AS16">
         <v>1000</v>
       </c>
       <c r="AT16">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="AU16">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AV16">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="AW16">
         <v>1000</v>
       </c>
       <c r="AX16">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="AY16">
         <v>1000</v>
       </c>
       <c r="AZ16">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="BA16">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="BB16">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="BC16">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="BD16">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="BE16">
         <v>1000</v>
@@ -4179,154 +4149,154 @@
         <v>1.7</v>
       </c>
       <c r="G17">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="H17">
         <v>3.9</v>
       </c>
       <c r="I17">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="J17">
+        <v>3.45</v>
+      </c>
+      <c r="K17">
+        <v>5.2</v>
+      </c>
+      <c r="L17">
+        <v>2.06</v>
+      </c>
+      <c r="M17">
+        <v>2.46</v>
+      </c>
+      <c r="N17">
+        <v>1.69</v>
+      </c>
+      <c r="O17">
+        <v>1.93</v>
+      </c>
+      <c r="P17">
+        <v>1.68</v>
+      </c>
+      <c r="Q17">
+        <v>1.93</v>
+      </c>
+      <c r="R17">
+        <v>2.06</v>
+      </c>
+      <c r="S17">
+        <v>2.48</v>
+      </c>
+      <c r="T17">
         <v>3.6</v>
       </c>
-      <c r="K17">
-        <v>6.6</v>
-      </c>
-      <c r="L17">
-        <v>1.44</v>
-      </c>
-      <c r="M17">
-        <v>100</v>
-      </c>
-      <c r="N17">
-        <v>1.03</v>
-      </c>
-      <c r="O17">
+      <c r="U17">
+        <v>980</v>
+      </c>
+      <c r="V17">
+        <v>3.65</v>
+      </c>
+      <c r="W17">
+        <v>980</v>
+      </c>
+      <c r="X17">
+        <v>3.95</v>
+      </c>
+      <c r="Y17">
+        <v>1000</v>
+      </c>
+      <c r="Z17">
+        <v>2.24</v>
+      </c>
+      <c r="AA17">
+        <v>1000</v>
+      </c>
+      <c r="AB17">
+        <v>3.2</v>
+      </c>
+      <c r="AC17">
+        <v>980</v>
+      </c>
+      <c r="AD17">
+        <v>3.1</v>
+      </c>
+      <c r="AE17">
+        <v>980</v>
+      </c>
+      <c r="AF17">
+        <v>3.6</v>
+      </c>
+      <c r="AG17">
+        <v>980</v>
+      </c>
+      <c r="AH17">
+        <v>3.05</v>
+      </c>
+      <c r="AI17">
+        <v>1000</v>
+      </c>
+      <c r="AJ17">
         <v>3.3</v>
       </c>
-      <c r="P17">
-        <v>1.15</v>
-      </c>
-      <c r="Q17">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="R17">
-        <v>1.15</v>
-      </c>
-      <c r="S17">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="T17">
-        <v>1.1</v>
-      </c>
-      <c r="U17">
-        <v>980</v>
-      </c>
-      <c r="V17">
-        <v>1.1</v>
-      </c>
-      <c r="W17">
-        <v>980</v>
-      </c>
-      <c r="X17">
-        <v>1.03</v>
-      </c>
-      <c r="Y17">
-        <v>1000</v>
-      </c>
-      <c r="Z17">
-        <v>1.03</v>
-      </c>
-      <c r="AA17">
-        <v>1000</v>
-      </c>
-      <c r="AB17">
-        <v>1.1</v>
-      </c>
-      <c r="AC17">
-        <v>980</v>
-      </c>
-      <c r="AD17">
-        <v>1.1</v>
-      </c>
-      <c r="AE17">
-        <v>980</v>
-      </c>
-      <c r="AF17">
-        <v>1.1</v>
-      </c>
-      <c r="AG17">
-        <v>980</v>
-      </c>
-      <c r="AH17">
-        <v>1.03</v>
-      </c>
-      <c r="AI17">
-        <v>1000</v>
-      </c>
-      <c r="AJ17">
-        <v>1.1</v>
-      </c>
       <c r="AK17">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AL17">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="AM17">
         <v>980</v>
       </c>
       <c r="AN17">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="AO17">
         <v>980</v>
       </c>
       <c r="AP17">
-        <v>1.03</v>
+        <v>3.05</v>
       </c>
       <c r="AQ17">
         <v>1000</v>
       </c>
       <c r="AR17">
-        <v>1.1</v>
+        <v>3.65</v>
       </c>
       <c r="AS17">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AT17">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="AU17">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AV17">
-        <v>1.1</v>
+        <v>3.85</v>
       </c>
       <c r="AW17">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AX17">
-        <v>1.03</v>
+        <v>2.46</v>
       </c>
       <c r="AY17">
         <v>1000</v>
       </c>
       <c r="AZ17">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="BA17">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="BB17">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="BC17">
         <v>1000</v>
       </c>
       <c r="BD17">
-        <v>1.1</v>
+        <v>1.73</v>
       </c>
       <c r="BE17">
         <v>1000</v>
@@ -4376,148 +4346,148 @@
         <v>2.26</v>
       </c>
       <c r="G18">
-        <v>3.15</v>
+        <v>2.54</v>
       </c>
       <c r="H18">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="I18">
+        <v>3.7</v>
+      </c>
+      <c r="J18">
+        <v>3.3</v>
+      </c>
+      <c r="K18">
+        <v>4.3</v>
+      </c>
+      <c r="L18">
+        <v>1.95</v>
+      </c>
+      <c r="M18">
+        <v>2.3</v>
+      </c>
+      <c r="N18">
+        <v>1.77</v>
+      </c>
+      <c r="O18">
+        <v>2.06</v>
+      </c>
+      <c r="P18">
+        <v>1.65</v>
+      </c>
+      <c r="Q18">
+        <v>1.88</v>
+      </c>
+      <c r="R18">
+        <v>2.12</v>
+      </c>
+      <c r="S18">
+        <v>2.54</v>
+      </c>
+      <c r="T18">
+        <v>1.5</v>
+      </c>
+      <c r="U18">
+        <v>980</v>
+      </c>
+      <c r="V18">
+        <v>2.6</v>
+      </c>
+      <c r="W18">
+        <v>980</v>
+      </c>
+      <c r="X18">
+        <v>1.1</v>
+      </c>
+      <c r="Y18">
+        <v>26</v>
+      </c>
+      <c r="Z18">
+        <v>1.1</v>
+      </c>
+      <c r="AA18">
+        <v>1000</v>
+      </c>
+      <c r="AB18">
+        <v>1.13</v>
+      </c>
+      <c r="AC18">
+        <v>980</v>
+      </c>
+      <c r="AD18">
+        <v>3.95</v>
+      </c>
+      <c r="AE18">
+        <v>980</v>
+      </c>
+      <c r="AF18">
+        <v>2.6</v>
+      </c>
+      <c r="AG18">
+        <v>980</v>
+      </c>
+      <c r="AH18">
+        <v>1.1</v>
+      </c>
+      <c r="AI18">
+        <v>1000</v>
+      </c>
+      <c r="AJ18">
+        <v>1.59</v>
+      </c>
+      <c r="AK18">
+        <v>17</v>
+      </c>
+      <c r="AL18">
+        <v>1.13</v>
+      </c>
+      <c r="AM18">
+        <v>980</v>
+      </c>
+      <c r="AN18">
         <v>4</v>
       </c>
-      <c r="J18">
-        <v>3.25</v>
-      </c>
-      <c r="K18">
-        <v>6.4</v>
-      </c>
-      <c r="L18">
-        <v>1.61</v>
-      </c>
-      <c r="M18">
-        <v>2.82</v>
-      </c>
-      <c r="N18">
-        <v>1.55</v>
-      </c>
-      <c r="O18">
-        <v>2.62</v>
-      </c>
-      <c r="P18">
-        <v>1.14</v>
-      </c>
-      <c r="Q18">
-        <v>990</v>
-      </c>
-      <c r="R18">
-        <v>1.14</v>
-      </c>
-      <c r="S18">
-        <v>990</v>
-      </c>
-      <c r="T18">
-        <v>1.46</v>
-      </c>
-      <c r="U18">
-        <v>980</v>
-      </c>
-      <c r="V18">
-        <v>1.03</v>
-      </c>
-      <c r="W18">
-        <v>980</v>
-      </c>
-      <c r="X18">
-        <v>1.03</v>
-      </c>
-      <c r="Y18">
-        <v>1000</v>
-      </c>
-      <c r="Z18">
-        <v>1.03</v>
-      </c>
-      <c r="AA18">
-        <v>1000</v>
-      </c>
-      <c r="AB18">
-        <v>1.03</v>
-      </c>
-      <c r="AC18">
-        <v>980</v>
-      </c>
-      <c r="AD18">
-        <v>1.03</v>
-      </c>
-      <c r="AE18">
-        <v>980</v>
-      </c>
-      <c r="AF18">
-        <v>1.03</v>
-      </c>
-      <c r="AG18">
-        <v>980</v>
-      </c>
-      <c r="AH18">
-        <v>1.03</v>
-      </c>
-      <c r="AI18">
-        <v>1000</v>
-      </c>
-      <c r="AJ18">
-        <v>1.03</v>
-      </c>
-      <c r="AK18">
-        <v>1000</v>
-      </c>
-      <c r="AL18">
-        <v>1.03</v>
-      </c>
-      <c r="AM18">
-        <v>980</v>
-      </c>
-      <c r="AN18">
-        <v>1.03</v>
-      </c>
       <c r="AO18">
         <v>980</v>
       </c>
       <c r="AP18">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AQ18">
         <v>1000</v>
       </c>
       <c r="AR18">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AS18">
         <v>1000</v>
       </c>
       <c r="AT18">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AU18">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AV18">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AW18">
         <v>1000</v>
       </c>
       <c r="AX18">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="AY18">
         <v>1000</v>
       </c>
       <c r="AZ18">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="BA18">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="BB18">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="BC18">
         <v>1000</v>
@@ -4573,52 +4543,52 @@
         <v>2.2</v>
       </c>
       <c r="G19">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H19">
-        <v>2.48</v>
+        <v>2.76</v>
       </c>
       <c r="I19">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="J19">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K19">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="L19">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="M19">
-        <v>3.75</v>
+        <v>2.74</v>
       </c>
       <c r="N19">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="O19">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="P19">
-        <v>1.15</v>
+        <v>1.52</v>
       </c>
       <c r="Q19">
-        <v>8.199999999999999</v>
+        <v>1.72</v>
       </c>
       <c r="R19">
-        <v>1.15</v>
+        <v>2.38</v>
       </c>
       <c r="S19">
-        <v>9.4</v>
+        <v>2.94</v>
       </c>
       <c r="T19">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="U19">
         <v>980</v>
       </c>
       <c r="V19">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W19">
         <v>980</v>
@@ -4627,7 +4597,7 @@
         <v>1.1</v>
       </c>
       <c r="Y19">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Z19">
         <v>1.1</v>
@@ -4636,49 +4606,49 @@
         <v>1000</v>
       </c>
       <c r="AB19">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AC19">
         <v>980</v>
       </c>
       <c r="AD19">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="AE19">
         <v>980</v>
       </c>
       <c r="AF19">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AG19">
         <v>980</v>
       </c>
       <c r="AH19">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AI19">
         <v>1000</v>
       </c>
       <c r="AJ19">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AK19">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL19">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="AM19">
         <v>980</v>
       </c>
       <c r="AN19">
-        <v>1.1</v>
+        <v>1.52</v>
       </c>
       <c r="AO19">
         <v>980</v>
       </c>
       <c r="AP19">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AQ19">
         <v>1000</v>
@@ -4690,10 +4660,10 @@
         <v>1000</v>
       </c>
       <c r="AT19">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AU19">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AV19">
         <v>1.1</v>
@@ -4708,16 +4678,16 @@
         <v>1000</v>
       </c>
       <c r="AZ19">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="BA19">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="BB19">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="BC19">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="BD19">
         <v>1.1</v>
@@ -4767,22 +4737,22 @@
         <v>166</v>
       </c>
       <c r="F20">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G20">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="H20">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="I20">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="J20">
         <v>3.55</v>
       </c>
       <c r="K20">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L20">
         <v>2.02</v>
@@ -4818,7 +4788,7 @@
         <v>11.5</v>
       </c>
       <c r="W20">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="X20">
         <v>17.5</v>
@@ -4830,7 +4800,7 @@
         <v>11</v>
       </c>
       <c r="AA20">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AB20">
         <v>11</v>
@@ -4854,10 +4824,10 @@
         <v>25</v>
       </c>
       <c r="AI20">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AJ20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK20">
         <v>18.5</v>
@@ -4878,7 +4848,7 @@
         <v>32</v>
       </c>
       <c r="AQ20">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AR20">
         <v>11.5</v>
@@ -4887,37 +4857,37 @@
         <v>42</v>
       </c>
       <c r="AT20">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AU20">
+        <v>28</v>
+      </c>
+      <c r="AV20">
+        <v>30</v>
+      </c>
+      <c r="AW20">
         <v>40</v>
-      </c>
-      <c r="AV20">
-        <v>11</v>
-      </c>
-      <c r="AW20">
-        <v>60</v>
       </c>
       <c r="AX20">
         <v>13</v>
       </c>
       <c r="AY20">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AZ20">
         <v>15.5</v>
       </c>
       <c r="BA20">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="BB20">
         <v>16.5</v>
       </c>
       <c r="BC20">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="BD20">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="BE20">
         <v>1000</v>
@@ -4964,34 +4934,34 @@
         <v>167</v>
       </c>
       <c r="F21">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="G21">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H21">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="I21">
         <v>1000</v>
       </c>
       <c r="J21">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="K21">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L21">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="M21">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1.05</v>
       </c>
       <c r="O21">
-        <v>110</v>
+        <v>6.4</v>
       </c>
       <c r="P21">
         <v>1.01</v>
@@ -5006,97 +4976,97 @@
         <v>1000</v>
       </c>
       <c r="T21">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="U21">
         <v>1000</v>
       </c>
       <c r="V21">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="W21">
         <v>1000</v>
       </c>
       <c r="X21">
-        <v>2.78</v>
+        <v>1.01</v>
       </c>
       <c r="Y21">
         <v>1000</v>
       </c>
       <c r="Z21">
-        <v>4.9</v>
+        <v>1.01</v>
       </c>
       <c r="AA21">
         <v>1000</v>
       </c>
       <c r="AB21">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="AC21">
         <v>1000</v>
       </c>
       <c r="AD21">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="AE21">
         <v>1000</v>
       </c>
       <c r="AF21">
-        <v>12.5</v>
+        <v>1.01</v>
       </c>
       <c r="AG21">
         <v>1000</v>
       </c>
       <c r="AH21">
-        <v>6.6</v>
+        <v>1.01</v>
       </c>
       <c r="AI21">
         <v>1000</v>
       </c>
       <c r="AJ21">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="AK21">
         <v>1000</v>
       </c>
       <c r="AL21">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="AM21">
         <v>1000</v>
       </c>
       <c r="AN21">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AO21">
         <v>1000</v>
       </c>
       <c r="AP21">
-        <v>17.5</v>
+        <v>1.01</v>
       </c>
       <c r="AQ21">
         <v>1000</v>
       </c>
       <c r="AR21">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="AS21">
         <v>1000</v>
       </c>
       <c r="AT21">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="AU21">
         <v>1000</v>
       </c>
       <c r="AV21">
-        <v>13</v>
+        <v>1.01</v>
       </c>
       <c r="AW21">
         <v>1000</v>
       </c>
       <c r="AX21">
-        <v>8.800000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="AY21">
         <v>1000</v>
@@ -5114,13 +5084,13 @@
         <v>1000</v>
       </c>
       <c r="BD21">
-        <v>29</v>
+        <v>1.03</v>
       </c>
       <c r="BE21">
         <v>1000</v>
       </c>
-      <c r="BF21" t="s">
-        <v>200</v>
+      <c r="BF21">
+        <v>33175804</v>
       </c>
       <c r="BG21">
         <v>10227904</v>
@@ -5131,17 +5101,17 @@
       <c r="BI21">
         <v>58805</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>202</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>204</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>206</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>208</v>
+      <c r="BJ21">
+        <v>1.22732744</v>
+      </c>
+      <c r="BK21">
+        <v>1.227327485</v>
+      </c>
+      <c r="BL21">
+        <v>1.227327524</v>
+      </c>
+      <c r="BM21">
+        <v>1.227327449</v>
       </c>
     </row>
     <row r="22" spans="1:65">
@@ -5161,25 +5131,25 @@
         <v>168</v>
       </c>
       <c r="F22">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="G22">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H22">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="I22">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J22">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="K22">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L22">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="M22">
         <v>110</v>
@@ -5188,7 +5158,7 @@
         <v>1.03</v>
       </c>
       <c r="O22">
-        <v>110</v>
+        <v>6.4</v>
       </c>
       <c r="P22">
         <v>1.01</v>
@@ -5203,97 +5173,97 @@
         <v>1000</v>
       </c>
       <c r="T22">
-        <v>29</v>
+        <v>1.48</v>
       </c>
       <c r="U22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="V22">
-        <v>2.6</v>
+        <v>1.03</v>
       </c>
       <c r="W22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="X22">
-        <v>2.86</v>
+        <v>1.03</v>
       </c>
       <c r="Y22">
         <v>1000</v>
       </c>
       <c r="Z22">
-        <v>3.1</v>
+        <v>1.03</v>
       </c>
       <c r="AA22">
         <v>1000</v>
       </c>
       <c r="AB22">
-        <v>9.4</v>
+        <v>1.1</v>
       </c>
       <c r="AC22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AD22">
-        <v>3.75</v>
+        <v>1.1</v>
       </c>
       <c r="AE22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF22">
-        <v>3.3</v>
+        <v>1.03</v>
       </c>
       <c r="AG22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AH22">
-        <v>9</v>
+        <v>1.03</v>
       </c>
       <c r="AI22">
         <v>1000</v>
       </c>
       <c r="AJ22">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="AK22">
         <v>1000</v>
       </c>
       <c r="AL22">
-        <v>9.4</v>
+        <v>1.1</v>
       </c>
       <c r="AM22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN22">
-        <v>5.6</v>
+        <v>1.03</v>
       </c>
       <c r="AO22">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AP22">
-        <v>7.2</v>
+        <v>1.03</v>
       </c>
       <c r="AQ22">
         <v>1000</v>
       </c>
       <c r="AR22">
-        <v>7.8</v>
+        <v>1.1</v>
       </c>
       <c r="AS22">
         <v>1000</v>
       </c>
       <c r="AT22">
-        <v>10</v>
+        <v>1.1</v>
       </c>
       <c r="AU22">
         <v>1000</v>
       </c>
       <c r="AV22">
-        <v>15.5</v>
+        <v>1.03</v>
       </c>
       <c r="AW22">
         <v>1000</v>
       </c>
       <c r="AX22">
-        <v>20</v>
+        <v>1.03</v>
       </c>
       <c r="AY22">
         <v>1000</v>
@@ -5311,13 +5281,13 @@
         <v>1000</v>
       </c>
       <c r="BD22">
-        <v>23</v>
+        <v>1.1</v>
       </c>
       <c r="BE22">
         <v>1000</v>
       </c>
-      <c r="BF22" t="s">
-        <v>201</v>
+      <c r="BF22">
+        <v>33175821</v>
       </c>
       <c r="BG22">
         <v>3667304</v>
@@ -5328,17 +5298,17 @@
       <c r="BI22">
         <v>58805</v>
       </c>
-      <c r="BJ22" t="s">
-        <v>203</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>205</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>207</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>209</v>
+      <c r="BJ22">
+        <v>1.22732735</v>
+      </c>
+      <c r="BK22">
+        <v>1.227327395</v>
+      </c>
+      <c r="BL22">
+        <v>1.227327434</v>
+      </c>
+      <c r="BM22">
+        <v>1.227327359</v>
       </c>
     </row>
     <row r="23" spans="1:65">
@@ -5358,151 +5328,151 @@
         <v>169</v>
       </c>
       <c r="F23">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G23">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="H23">
+        <v>4.1</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
         <v>4</v>
       </c>
-      <c r="I23">
+      <c r="K23">
+        <v>6.2</v>
+      </c>
+      <c r="L23">
+        <v>2.72</v>
+      </c>
+      <c r="M23">
+        <v>3.4</v>
+      </c>
+      <c r="N23">
+        <v>1.42</v>
+      </c>
+      <c r="O23">
+        <v>1.58</v>
+      </c>
+      <c r="P23">
+        <v>1.48</v>
+      </c>
+      <c r="Q23">
+        <v>1.66</v>
+      </c>
+      <c r="R23">
+        <v>2.52</v>
+      </c>
+      <c r="S23">
+        <v>3.1</v>
+      </c>
+      <c r="T23">
+        <v>1.01</v>
+      </c>
+      <c r="U23">
+        <v>1000</v>
+      </c>
+      <c r="V23">
+        <v>1.03</v>
+      </c>
+      <c r="W23">
+        <v>1000</v>
+      </c>
+      <c r="X23">
+        <v>1.03</v>
+      </c>
+      <c r="Y23">
+        <v>1000</v>
+      </c>
+      <c r="Z23">
+        <v>1.03</v>
+      </c>
+      <c r="AA23">
+        <v>1000</v>
+      </c>
+      <c r="AB23">
+        <v>1.1</v>
+      </c>
+      <c r="AC23">
+        <v>17</v>
+      </c>
+      <c r="AD23">
+        <v>4.5</v>
+      </c>
+      <c r="AE23">
+        <v>13</v>
+      </c>
+      <c r="AF23">
+        <v>1.03</v>
+      </c>
+      <c r="AG23">
+        <v>20</v>
+      </c>
+      <c r="AH23">
+        <v>1.03</v>
+      </c>
+      <c r="AI23">
+        <v>1000</v>
+      </c>
+      <c r="AJ23">
+        <v>3.85</v>
+      </c>
+      <c r="AK23">
+        <v>16.5</v>
+      </c>
+      <c r="AL23">
+        <v>4.3</v>
+      </c>
+      <c r="AM23">
+        <v>12</v>
+      </c>
+      <c r="AN23">
+        <v>5</v>
+      </c>
+      <c r="AO23">
+        <v>18.5</v>
+      </c>
+      <c r="AP23">
+        <v>1.03</v>
+      </c>
+      <c r="AQ23">
+        <v>1000</v>
+      </c>
+      <c r="AR23">
+        <v>1.03</v>
+      </c>
+      <c r="AS23">
+        <v>23</v>
+      </c>
+      <c r="AT23">
+        <v>1.03</v>
+      </c>
+      <c r="AU23">
+        <v>17.5</v>
+      </c>
+      <c r="AV23">
+        <v>1.04</v>
+      </c>
+      <c r="AW23">
+        <v>1000</v>
+      </c>
+      <c r="AX23">
+        <v>1.03</v>
+      </c>
+      <c r="AY23">
+        <v>1000</v>
+      </c>
+      <c r="AZ23">
+        <v>1.03</v>
+      </c>
+      <c r="BA23">
         <v>7.2</v>
       </c>
-      <c r="J23">
-        <v>3.85</v>
-      </c>
-      <c r="K23">
-        <v>6.8</v>
-      </c>
-      <c r="L23">
-        <v>1.58</v>
-      </c>
-      <c r="M23">
-        <v>15</v>
-      </c>
-      <c r="N23">
-        <v>1.07</v>
-      </c>
-      <c r="O23">
-        <v>2.72</v>
-      </c>
-      <c r="P23">
-        <v>1.15</v>
-      </c>
-      <c r="Q23">
-        <v>7.8</v>
-      </c>
-      <c r="R23">
-        <v>1.15</v>
-      </c>
-      <c r="S23">
-        <v>9.4</v>
-      </c>
-      <c r="T23">
-        <v>1.48</v>
-      </c>
-      <c r="U23">
-        <v>1000</v>
-      </c>
-      <c r="V23">
-        <v>1.01</v>
-      </c>
-      <c r="W23">
-        <v>1000</v>
-      </c>
-      <c r="X23">
-        <v>1.01</v>
-      </c>
-      <c r="Y23">
-        <v>1000</v>
-      </c>
-      <c r="Z23">
-        <v>1.01</v>
-      </c>
-      <c r="AA23">
-        <v>1000</v>
-      </c>
-      <c r="AB23">
-        <v>1.01</v>
-      </c>
-      <c r="AC23">
-        <v>1000</v>
-      </c>
-      <c r="AD23">
-        <v>1.01</v>
-      </c>
-      <c r="AE23">
-        <v>1000</v>
-      </c>
-      <c r="AF23">
-        <v>1.01</v>
-      </c>
-      <c r="AG23">
-        <v>1000</v>
-      </c>
-      <c r="AH23">
-        <v>1.01</v>
-      </c>
-      <c r="AI23">
-        <v>1000</v>
-      </c>
-      <c r="AJ23">
-        <v>1.01</v>
-      </c>
-      <c r="AK23">
-        <v>1000</v>
-      </c>
-      <c r="AL23">
-        <v>1.01</v>
-      </c>
-      <c r="AM23">
-        <v>1000</v>
-      </c>
-      <c r="AN23">
-        <v>1.01</v>
-      </c>
-      <c r="AO23">
-        <v>1000</v>
-      </c>
-      <c r="AP23">
-        <v>1.01</v>
-      </c>
-      <c r="AQ23">
-        <v>1000</v>
-      </c>
-      <c r="AR23">
-        <v>1.01</v>
-      </c>
-      <c r="AS23">
-        <v>1000</v>
-      </c>
-      <c r="AT23">
-        <v>1.01</v>
-      </c>
-      <c r="AU23">
-        <v>1000</v>
-      </c>
-      <c r="AV23">
-        <v>1.01</v>
-      </c>
-      <c r="AW23">
-        <v>1000</v>
-      </c>
-      <c r="AX23">
-        <v>1.01</v>
-      </c>
-      <c r="AY23">
-        <v>1000</v>
-      </c>
-      <c r="AZ23">
-        <v>1.01</v>
-      </c>
-      <c r="BA23">
-        <v>1000</v>
-      </c>
       <c r="BB23">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="BC23">
         <v>1000</v>
@@ -5555,31 +5525,31 @@
         <v>170</v>
       </c>
       <c r="F24">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="H24">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I24">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J24">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K24">
         <v>3.75</v>
       </c>
       <c r="L24">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="M24">
         <v>2.22</v>
       </c>
       <c r="N24">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="O24">
         <v>2.04</v>
@@ -5597,19 +5567,19 @@
         <v>2.54</v>
       </c>
       <c r="T24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U24">
         <v>18.5</v>
       </c>
       <c r="V24">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="W24">
         <v>14.5</v>
       </c>
       <c r="X24">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y24">
         <v>22</v>
@@ -5621,7 +5591,7 @@
         <v>46</v>
       </c>
       <c r="AB24">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC24">
         <v>16</v>
@@ -5639,31 +5609,31 @@
         <v>15</v>
       </c>
       <c r="AH24">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AI24">
         <v>34</v>
       </c>
       <c r="AJ24">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AK24">
         <v>25</v>
       </c>
       <c r="AL24">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AM24">
         <v>16</v>
       </c>
       <c r="AN24">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AO24">
         <v>21</v>
       </c>
       <c r="AP24">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AQ24">
         <v>48</v>
@@ -5693,19 +5663,19 @@
         <v>110</v>
       </c>
       <c r="AZ24">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BA24">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BB24">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="BC24">
         <v>25</v>
       </c>
       <c r="BD24">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="BE24">
         <v>1000</v>
@@ -5752,25 +5722,25 @@
         <v>171</v>
       </c>
       <c r="F25">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="G25">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H25">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I25">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="J25">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K25">
         <v>3.65</v>
       </c>
       <c r="L25">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="M25">
         <v>2.26</v>
@@ -5779,7 +5749,7 @@
         <v>1.8</v>
       </c>
       <c r="O25">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="P25">
         <v>1.66</v>
@@ -5794,7 +5764,7 @@
         <v>2.52</v>
       </c>
       <c r="T25">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="U25">
         <v>16.5</v>
@@ -5860,7 +5830,7 @@
         <v>19</v>
       </c>
       <c r="AP25">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ25">
         <v>42</v>
@@ -5872,16 +5842,16 @@
         <v>55</v>
       </c>
       <c r="AT25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU25">
         <v>36</v>
       </c>
       <c r="AV25">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AW25">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AX25">
         <v>6.2</v>
@@ -5890,13 +5860,13 @@
         <v>100</v>
       </c>
       <c r="AZ25">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="BA25">
         <v>29</v>
       </c>
       <c r="BB25">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="BC25">
         <v>22</v>
@@ -5952,46 +5922,46 @@
         <v>1.61</v>
       </c>
       <c r="G26">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="H26">
         <v>6</v>
       </c>
       <c r="I26">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J26">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K26">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L26">
-        <v>1.64</v>
+        <v>2.28</v>
       </c>
       <c r="M26">
-        <v>980</v>
+        <v>2.62</v>
       </c>
       <c r="N26">
-        <v>1.13</v>
+        <v>1.62</v>
       </c>
       <c r="O26">
-        <v>2.58</v>
+        <v>1.78</v>
       </c>
       <c r="P26">
-        <v>1.15</v>
+        <v>1.71</v>
       </c>
       <c r="Q26">
-        <v>8.199999999999999</v>
+        <v>1.91</v>
       </c>
       <c r="R26">
-        <v>1.15</v>
+        <v>2.1</v>
       </c>
       <c r="S26">
-        <v>8.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="T26">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="U26">
         <v>22</v>
@@ -6003,58 +5973,58 @@
         <v>28</v>
       </c>
       <c r="X26">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y26">
         <v>55</v>
       </c>
       <c r="Z26">
-        <v>3.8</v>
+        <v>10.5</v>
       </c>
       <c r="AA26">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB26">
         <v>9.6</v>
       </c>
       <c r="AC26">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD26">
         <v>9.199999999999999</v>
       </c>
       <c r="AE26">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF26">
         <v>20</v>
       </c>
       <c r="AG26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH26">
-        <v>44</v>
+        <v>9.6</v>
       </c>
       <c r="AI26">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ26">
         <v>9.6</v>
       </c>
       <c r="AK26">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AL26">
         <v>9.199999999999999</v>
       </c>
       <c r="AM26">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AN26">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP26">
         <v>44</v>
@@ -6063,43 +6033,43 @@
         <v>80</v>
       </c>
       <c r="AR26">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AS26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT26">
         <v>13.5</v>
       </c>
       <c r="AU26">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AV26">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AW26">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AX26">
-        <v>3.8</v>
+        <v>10</v>
       </c>
       <c r="AY26">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AZ26">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="BA26">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="BB26">
-        <v>3.7</v>
+        <v>9.6</v>
       </c>
       <c r="BC26">
         <v>75</v>
       </c>
       <c r="BD26">
-        <v>3.9</v>
+        <v>11</v>
       </c>
       <c r="BE26">
         <v>1000</v>
@@ -6146,19 +6116,19 @@
         <v>173</v>
       </c>
       <c r="F27">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="G27">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="H27">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I27">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J27">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K27">
         <v>3.6</v>
@@ -6167,79 +6137,79 @@
         <v>2</v>
       </c>
       <c r="M27">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="N27">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="P27">
         <v>1.7</v>
       </c>
       <c r="Q27">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="R27">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S27">
         <v>2.42</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="U27">
         <v>17</v>
       </c>
       <c r="V27">
-        <v>3.9</v>
+        <v>10.5</v>
       </c>
       <c r="W27">
         <v>16</v>
       </c>
       <c r="X27">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Y27">
         <v>27</v>
       </c>
       <c r="Z27">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="AA27">
         <v>65</v>
       </c>
       <c r="AB27">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AC27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD27">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="AE27">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AF27">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AG27">
         <v>17</v>
       </c>
       <c r="AH27">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AI27">
         <v>44</v>
       </c>
       <c r="AJ27">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="AK27">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL27">
         <v>9.6</v>
@@ -6248,55 +6218,55 @@
         <v>14</v>
       </c>
       <c r="AN27">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="AO27">
         <v>22</v>
       </c>
       <c r="AP27">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AQ27">
         <v>60</v>
       </c>
       <c r="AR27">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="AS27">
         <v>40</v>
       </c>
       <c r="AT27">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AU27">
         <v>32</v>
       </c>
       <c r="AV27">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="AW27">
         <v>48</v>
       </c>
       <c r="AX27">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="AY27">
         <v>1000</v>
       </c>
       <c r="AZ27">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="BA27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB27">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="BC27">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BD27">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="BE27">
         <v>1000</v>
@@ -6364,19 +6334,19 @@
         <v>1.67</v>
       </c>
       <c r="M28">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="N28">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="O28">
         <v>2.5</v>
       </c>
       <c r="P28">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q28">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R28">
         <v>1.94</v>
@@ -6388,10 +6358,10 @@
         <v>9.4</v>
       </c>
       <c r="U28">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="V28">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="W28">
         <v>11.5</v>
@@ -6400,100 +6370,100 @@
         <v>20</v>
       </c>
       <c r="Y28">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z28">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AA28">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB28">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC28">
         <v>9</v>
       </c>
       <c r="AD28">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE28">
         <v>7.4</v>
       </c>
       <c r="AF28">
+        <v>14</v>
+      </c>
+      <c r="AG28">
+        <v>15</v>
+      </c>
+      <c r="AH28">
+        <v>40</v>
+      </c>
+      <c r="AI28">
+        <v>48</v>
+      </c>
+      <c r="AJ28">
+        <v>12.5</v>
+      </c>
+      <c r="AK28">
         <v>13.5</v>
-      </c>
-      <c r="AG28">
-        <v>19</v>
-      </c>
-      <c r="AH28">
-        <v>26</v>
-      </c>
-      <c r="AI28">
-        <v>60</v>
-      </c>
-      <c r="AJ28">
-        <v>12</v>
-      </c>
-      <c r="AK28">
-        <v>17</v>
       </c>
       <c r="AL28">
         <v>10.5</v>
       </c>
       <c r="AM28">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AN28">
         <v>18.5</v>
       </c>
       <c r="AO28">
+        <v>21</v>
+      </c>
+      <c r="AP28">
+        <v>55</v>
+      </c>
+      <c r="AQ28">
+        <v>75</v>
+      </c>
+      <c r="AR28">
+        <v>29</v>
+      </c>
+      <c r="AS28">
+        <v>32</v>
+      </c>
+      <c r="AT28">
         <v>26</v>
       </c>
-      <c r="AP28">
-        <v>32</v>
-      </c>
-      <c r="AQ28">
-        <v>80</v>
-      </c>
-      <c r="AR28">
-        <v>21</v>
-      </c>
-      <c r="AS28">
-        <v>40</v>
-      </c>
-      <c r="AT28">
-        <v>19</v>
-      </c>
       <c r="AU28">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AV28">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AW28">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AX28">
         <v>42</v>
       </c>
       <c r="AY28">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AZ28">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA28">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="BB28">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="BC28">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="BD28">
-        <v>6.4</v>
+        <v>18</v>
       </c>
       <c r="BE28">
         <v>1000</v>
@@ -6552,13 +6522,13 @@
         <v>4.6</v>
       </c>
       <c r="J29">
+        <v>4.3</v>
+      </c>
+      <c r="K29">
         <v>4.4</v>
       </c>
-      <c r="K29">
-        <v>4.5</v>
-      </c>
       <c r="L29">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="M29">
         <v>3</v>
@@ -6570,16 +6540,16 @@
         <v>1.59</v>
       </c>
       <c r="P29">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q29">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R29">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="S29">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="T29">
         <v>23</v>
@@ -6588,7 +6558,7 @@
         <v>27</v>
       </c>
       <c r="V29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W29">
         <v>27</v>
@@ -6618,16 +6588,16 @@
         <v>11</v>
       </c>
       <c r="AF29">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG29">
         <v>18</v>
       </c>
       <c r="AH29">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI29">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ29">
         <v>13</v>
@@ -6639,7 +6609,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AM29">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AN29">
         <v>14.5</v>
@@ -6648,13 +6618,13 @@
         <v>16</v>
       </c>
       <c r="AP29">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AQ29">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AR29">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AS29">
         <v>21</v>
@@ -6737,31 +6707,31 @@
         <v>176</v>
       </c>
       <c r="F30">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="G30">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H30">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I30">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="J30">
         <v>4</v>
       </c>
       <c r="K30">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L30">
         <v>1.93</v>
       </c>
       <c r="M30">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="N30">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="O30">
         <v>2.08</v>
@@ -6851,10 +6821,10 @@
         <v>38</v>
       </c>
       <c r="AR30">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS30">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AT30">
         <v>65</v>
@@ -6863,13 +6833,13 @@
         <v>75</v>
       </c>
       <c r="AV30">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AW30">
         <v>90</v>
       </c>
       <c r="AX30">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AY30">
         <v>130</v>
@@ -6878,7 +6848,7 @@
         <v>36</v>
       </c>
       <c r="BA30">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="BB30">
         <v>9.6</v>
@@ -6887,7 +6857,7 @@
         <v>11</v>
       </c>
       <c r="BD30">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="BE30">
         <v>1000</v>
@@ -6940,19 +6910,19 @@
         <v>3.4</v>
       </c>
       <c r="H31">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I31">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J31">
+        <v>3.4</v>
+      </c>
+      <c r="K31">
         <v>3.45</v>
       </c>
-      <c r="K31">
-        <v>3.5</v>
-      </c>
       <c r="L31">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="M31">
         <v>1.95</v>
@@ -6961,7 +6931,7 @@
         <v>2.06</v>
       </c>
       <c r="O31">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="P31">
         <v>1.84</v>
@@ -6982,10 +6952,10 @@
         <v>12.5</v>
       </c>
       <c r="V31">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="W31">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="X31">
         <v>13.5</v>
@@ -7000,10 +6970,10 @@
         <v>34</v>
       </c>
       <c r="AB31">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC31">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD31">
         <v>7</v>
@@ -7030,7 +7000,7 @@
         <v>22</v>
       </c>
       <c r="AL31">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM31">
         <v>14</v>
@@ -7042,7 +7012,7 @@
         <v>19</v>
       </c>
       <c r="AP31">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AQ31">
         <v>44</v>
@@ -7057,7 +7027,7 @@
         <v>34</v>
       </c>
       <c r="AU31">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AV31">
         <v>46</v>
@@ -7081,7 +7051,7 @@
         <v>18</v>
       </c>
       <c r="BC31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD31">
         <v>14</v>
@@ -7134,103 +7104,103 @@
         <v>1.92</v>
       </c>
       <c r="G32">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H32">
+        <v>4.6</v>
+      </c>
+      <c r="I32">
         <v>4.8</v>
       </c>
-      <c r="I32">
-        <v>4.9</v>
-      </c>
       <c r="J32">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K32">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L32">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="M32">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="N32">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O32">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="P32">
         <v>2</v>
       </c>
       <c r="Q32">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R32">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S32">
         <v>1.99</v>
       </c>
       <c r="T32">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="U32">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="V32">
-        <v>12.5</v>
+        <v>4.8</v>
       </c>
       <c r="W32">
         <v>18</v>
       </c>
       <c r="X32">
-        <v>3.95</v>
+        <v>5.8</v>
       </c>
       <c r="Y32">
         <v>42</v>
       </c>
       <c r="Z32">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA32">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB32">
         <v>7</v>
       </c>
       <c r="AC32">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD32">
-        <v>7.4</v>
+        <v>3.75</v>
       </c>
       <c r="AE32">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AF32">
-        <v>3.65</v>
+        <v>5.2</v>
       </c>
       <c r="AG32">
         <v>24</v>
       </c>
       <c r="AH32">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="AI32">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ32">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="AK32">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL32">
         <v>9.6</v>
       </c>
       <c r="AM32">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN32">
         <v>5.4</v>
@@ -7239,10 +7209,10 @@
         <v>28</v>
       </c>
       <c r="AP32">
-        <v>14</v>
+        <v>6.2</v>
       </c>
       <c r="AQ32">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR32">
         <v>15.5</v>
@@ -7251,16 +7221,16 @@
         <v>26</v>
       </c>
       <c r="AT32">
-        <v>3.75</v>
+        <v>15.5</v>
       </c>
       <c r="AU32">
         <v>27</v>
       </c>
       <c r="AV32">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="AW32">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AX32">
         <v>10</v>
@@ -7269,19 +7239,19 @@
         <v>190</v>
       </c>
       <c r="AZ32">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="BA32">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BB32">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="BC32">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BD32">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="BE32">
         <v>1000</v>
@@ -7328,37 +7298,37 @@
         <v>179</v>
       </c>
       <c r="F33">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G33">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H33">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I33">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J33">
         <v>3.55</v>
       </c>
       <c r="K33">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L33">
         <v>1.92</v>
       </c>
       <c r="M33">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="N33">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="O33">
         <v>2.1</v>
       </c>
       <c r="P33">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="Q33">
         <v>1.87</v>
@@ -7367,7 +7337,7 @@
         <v>2.16</v>
       </c>
       <c r="S33">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T33">
         <v>12.5</v>
@@ -7409,7 +7379,7 @@
         <v>10.5</v>
       </c>
       <c r="AG33">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH33">
         <v>22</v>
@@ -7466,7 +7436,7 @@
         <v>95</v>
       </c>
       <c r="AZ33">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA33">
         <v>38</v>
@@ -7478,7 +7448,7 @@
         <v>20</v>
       </c>
       <c r="BD33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BE33">
         <v>1000</v>
@@ -7525,22 +7495,22 @@
         <v>180</v>
       </c>
       <c r="F34">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="G34">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="H34">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="I34">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="J34">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K34">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L34">
         <v>1.87</v>
@@ -7576,19 +7546,19 @@
         <v>11</v>
       </c>
       <c r="W34">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="X34">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y34">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z34">
         <v>12</v>
       </c>
       <c r="AA34">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB34">
         <v>9.4</v>
@@ -7597,19 +7567,19 @@
         <v>11</v>
       </c>
       <c r="AD34">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE34">
         <v>8</v>
       </c>
       <c r="AF34">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG34">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH34">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI34">
         <v>38</v>
@@ -7618,7 +7588,7 @@
         <v>13.5</v>
       </c>
       <c r="AK34">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AL34">
         <v>10.5</v>
@@ -7627,22 +7597,22 @@
         <v>12</v>
       </c>
       <c r="AN34">
-        <v>16</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO34">
         <v>18.5</v>
       </c>
       <c r="AP34">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AQ34">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR34">
         <v>30</v>
       </c>
       <c r="AS34">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AT34">
         <v>24</v>
@@ -7651,31 +7621,31 @@
         <v>28</v>
       </c>
       <c r="AV34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW34">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AX34">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY34">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AZ34">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA34">
         <v>27</v>
       </c>
       <c r="BB34">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="BC34">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="BD34">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="BE34">
         <v>1000</v>
@@ -7722,19 +7692,19 @@
         <v>181</v>
       </c>
       <c r="F35">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G35">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="H35">
         <v>2.56</v>
       </c>
       <c r="I35">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J35">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K35">
         <v>3.75</v>
@@ -7752,13 +7722,13 @@
         <v>1.95</v>
       </c>
       <c r="P35">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q35">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R35">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="S35">
         <v>2.48</v>
@@ -7776,7 +7746,7 @@
         <v>13</v>
       </c>
       <c r="X35">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y35">
         <v>17.5</v>
@@ -7824,7 +7794,7 @@
         <v>13.5</v>
       </c>
       <c r="AN35">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO35">
         <v>16.5</v>
@@ -7836,7 +7806,7 @@
         <v>44</v>
       </c>
       <c r="AR35">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AS35">
         <v>46</v>
@@ -7872,7 +7842,7 @@
         <v>23</v>
       </c>
       <c r="BD35">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="BE35">
         <v>1000</v>
@@ -7919,13 +7889,13 @@
         <v>182</v>
       </c>
       <c r="F36">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G36">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H36">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I36">
         <v>6.2</v>
@@ -7937,139 +7907,139 @@
         <v>4.3</v>
       </c>
       <c r="L36">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O36">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="P36">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="Q36">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="R36">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="S36">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="T36">
-        <v>1.51</v>
+        <v>11</v>
       </c>
       <c r="U36">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="V36">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="W36">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="X36">
+        <v>10</v>
+      </c>
+      <c r="Y36">
+        <v>48</v>
+      </c>
+      <c r="Z36">
+        <v>12</v>
+      </c>
+      <c r="AA36">
+        <v>180</v>
+      </c>
+      <c r="AB36">
+        <v>7</v>
+      </c>
+      <c r="AC36">
+        <v>8</v>
+      </c>
+      <c r="AD36">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE36">
+        <v>9.4</v>
+      </c>
+      <c r="AF36">
+        <v>20</v>
+      </c>
+      <c r="AG36">
+        <v>24</v>
+      </c>
+      <c r="AH36">
+        <v>11</v>
+      </c>
+      <c r="AI36">
+        <v>95</v>
+      </c>
+      <c r="AJ36">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK36">
+        <v>9.6</v>
+      </c>
+      <c r="AL36">
+        <v>9</v>
+      </c>
+      <c r="AM36">
+        <v>10</v>
+      </c>
+      <c r="AN36">
+        <v>21</v>
+      </c>
+      <c r="AO36">
+        <v>25</v>
+      </c>
+      <c r="AP36">
+        <v>11</v>
+      </c>
+      <c r="AQ36">
+        <v>100</v>
+      </c>
+      <c r="AR36">
         <v>7.2</v>
       </c>
-      <c r="Y36">
-        <v>1000</v>
-      </c>
-      <c r="Z36">
-        <v>1.5</v>
-      </c>
-      <c r="AA36">
-        <v>190</v>
-      </c>
-      <c r="AB36">
-        <v>2.46</v>
-      </c>
-      <c r="AC36">
-        <v>980</v>
-      </c>
-      <c r="AD36">
-        <v>6.8</v>
-      </c>
-      <c r="AE36">
-        <v>11</v>
-      </c>
-      <c r="AF36">
-        <v>16.5</v>
-      </c>
-      <c r="AG36">
-        <v>980</v>
-      </c>
-      <c r="AH36">
-        <v>7.2</v>
-      </c>
-      <c r="AI36">
-        <v>1000</v>
-      </c>
-      <c r="AJ36">
-        <v>2.96</v>
-      </c>
-      <c r="AK36">
-        <v>1000</v>
-      </c>
-      <c r="AL36">
-        <v>8.4</v>
-      </c>
-      <c r="AM36">
-        <v>12.5</v>
-      </c>
-      <c r="AN36">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO36">
-        <v>980</v>
-      </c>
-      <c r="AP36">
-        <v>7</v>
-      </c>
-      <c r="AQ36">
-        <v>1000</v>
-      </c>
-      <c r="AR36">
-        <v>12.5</v>
-      </c>
       <c r="AS36">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AT36">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="AU36">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="AV36">
-        <v>1.47</v>
+        <v>30</v>
       </c>
       <c r="AW36">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AX36">
-        <v>1.5</v>
+        <v>11.5</v>
       </c>
       <c r="AY36">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AZ36">
-        <v>1.52</v>
+        <v>8.6</v>
       </c>
       <c r="BA36">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="BB36">
-        <v>1.52</v>
+        <v>11.5</v>
       </c>
       <c r="BC36">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="BD36">
-        <v>1.52</v>
+        <v>26</v>
       </c>
       <c r="BE36">
         <v>1000</v>
@@ -8122,10 +8092,10 @@
         <v>1.74</v>
       </c>
       <c r="H37">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="I37">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J37">
         <v>4</v>
@@ -8134,25 +8104,25 @@
         <v>4.2</v>
       </c>
       <c r="L37">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="M37">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="N37">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="O37">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="P37">
         <v>1.96</v>
       </c>
       <c r="Q37">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="R37">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="S37">
         <v>2.06</v>
@@ -8161,13 +8131,13 @@
         <v>11.5</v>
       </c>
       <c r="U37">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V37">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="W37">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="X37">
         <v>36</v>
@@ -8176,7 +8146,7 @@
         <v>44</v>
       </c>
       <c r="Z37">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AA37">
         <v>160</v>
@@ -8185,7 +8155,7 @@
         <v>7.2</v>
       </c>
       <c r="AC37">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD37">
         <v>8</v>
@@ -8197,16 +8167,16 @@
         <v>19.5</v>
       </c>
       <c r="AG37">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AH37">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI37">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ37">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AK37">
         <v>10</v>
@@ -8218,19 +8188,19 @@
         <v>10</v>
       </c>
       <c r="AN37">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="AO37">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP37">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ37">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AR37">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AS37">
         <v>17.5</v>
@@ -8242,31 +8212,31 @@
         <v>19</v>
       </c>
       <c r="AV37">
-        <v>9.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AW37">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AX37">
-        <v>12</v>
+        <v>8.4</v>
       </c>
       <c r="AY37">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AZ37">
+        <v>9.4</v>
+      </c>
+      <c r="BA37">
+        <v>14</v>
+      </c>
+      <c r="BB37">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BC37">
+        <v>110</v>
+      </c>
+      <c r="BD37">
         <v>9</v>
-      </c>
-      <c r="BA37">
-        <v>12.5</v>
-      </c>
-      <c r="BB37">
-        <v>11.5</v>
-      </c>
-      <c r="BC37">
-        <v>130</v>
-      </c>
-      <c r="BD37">
-        <v>7.4</v>
       </c>
       <c r="BE37">
         <v>1000</v>
@@ -8316,31 +8286,31 @@
         <v>4.2</v>
       </c>
       <c r="G38">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="H38">
         <v>1.91</v>
       </c>
       <c r="I38">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="J38">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K38">
         <v>4</v>
       </c>
       <c r="L38">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="M38">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="N38">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="O38">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P38">
         <v>1.75</v>
@@ -8349,7 +8319,7 @@
         <v>1.82</v>
       </c>
       <c r="R38">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="S38">
         <v>2.34</v>
@@ -8358,7 +8328,7 @@
         <v>12</v>
       </c>
       <c r="U38">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V38">
         <v>8.199999999999999</v>
@@ -8376,13 +8346,13 @@
         <v>18.5</v>
       </c>
       <c r="AA38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB38">
         <v>13.5</v>
       </c>
       <c r="AC38">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AD38">
         <v>7.6</v>
@@ -8400,10 +8370,10 @@
         <v>17</v>
       </c>
       <c r="AI38">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ38">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AK38">
         <v>36</v>
@@ -8424,46 +8394,46 @@
         <v>27</v>
       </c>
       <c r="AQ38">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AR38">
+        <v>6.4</v>
+      </c>
+      <c r="AS38">
+        <v>100</v>
+      </c>
+      <c r="AT38">
         <v>6.2</v>
-      </c>
-      <c r="AS38">
-        <v>110</v>
-      </c>
-      <c r="AT38">
-        <v>6</v>
       </c>
       <c r="AU38">
         <v>60</v>
       </c>
       <c r="AV38">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AW38">
         <v>70</v>
       </c>
       <c r="AX38">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AY38">
         <v>120</v>
       </c>
       <c r="AZ38">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="BA38">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB38">
         <v>4.6</v>
       </c>
       <c r="BC38">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="BD38">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="BE38">
         <v>1000</v>
@@ -8513,16 +8483,16 @@
         <v>1.98</v>
       </c>
       <c r="G39">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I39">
         <v>4.3</v>
       </c>
       <c r="J39">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K39">
         <v>3.8</v>
@@ -8531,10 +8501,10 @@
         <v>1.93</v>
       </c>
       <c r="M39">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="N39">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="O39">
         <v>2.08</v>
@@ -8564,28 +8534,28 @@
         <v>18.5</v>
       </c>
       <c r="X39">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="Y39">
         <v>36</v>
       </c>
       <c r="Z39">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AA39">
         <v>100</v>
       </c>
       <c r="AB39">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC39">
         <v>11.5</v>
       </c>
       <c r="AD39">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AE39">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AF39">
         <v>13.5</v>
@@ -8594,7 +8564,7 @@
         <v>21</v>
       </c>
       <c r="AH39">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AI39">
         <v>60</v>
@@ -8618,49 +8588,49 @@
         <v>24</v>
       </c>
       <c r="AP39">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="AQ39">
         <v>75</v>
       </c>
       <c r="AR39">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AS39">
         <v>29</v>
       </c>
       <c r="AT39">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AU39">
         <v>26</v>
       </c>
       <c r="AV39">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AW39">
         <v>46</v>
       </c>
       <c r="AX39">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="AY39">
         <v>130</v>
       </c>
       <c r="AZ39">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="BA39">
         <v>17.5</v>
       </c>
       <c r="BB39">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="BC39">
         <v>65</v>
       </c>
       <c r="BD39">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="BE39">
         <v>1000</v>
@@ -8713,10 +8683,10 @@
         <v>1.35</v>
       </c>
       <c r="H40">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="I40">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="J40">
         <v>6</v>
@@ -8725,40 +8695,40 @@
         <v>6.2</v>
       </c>
       <c r="L40">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="M40">
-        <v>2.76</v>
+        <v>2.68</v>
       </c>
       <c r="N40">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O40">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P40">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="Q40">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R40">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S40">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="T40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U40">
         <v>24</v>
       </c>
       <c r="V40">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W40">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="X40">
         <v>38</v>
@@ -8767,7 +8737,7 @@
         <v>110</v>
       </c>
       <c r="Z40">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="AA40">
         <v>480</v>
@@ -8788,16 +8758,16 @@
         <v>34</v>
       </c>
       <c r="AG40">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH40">
         <v>50</v>
       </c>
       <c r="AI40">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ40">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AK40">
         <v>8.6</v>
@@ -8806,19 +8776,19 @@
         <v>9.6</v>
       </c>
       <c r="AM40">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AN40">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO40">
         <v>29</v>
       </c>
       <c r="AP40">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AQ40">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AR40">
         <v>9.800000000000001</v>
@@ -8830,10 +8800,10 @@
         <v>12.5</v>
       </c>
       <c r="AU40">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AV40">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW40">
         <v>34</v>
@@ -8848,16 +8818,16 @@
         <v>4.5</v>
       </c>
       <c r="BA40">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="BB40">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="BC40">
         <v>180</v>
       </c>
       <c r="BD40">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="BE40">
         <v>1000</v>
@@ -8904,16 +8874,16 @@
         <v>187</v>
       </c>
       <c r="F41">
+        <v>1.78</v>
+      </c>
+      <c r="G41">
         <v>1.79</v>
       </c>
-      <c r="G41">
-        <v>1.8</v>
-      </c>
       <c r="H41">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I41">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J41">
         <v>4.2</v>
@@ -8922,16 +8892,16 @@
         <v>4.3</v>
       </c>
       <c r="L41">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="M41">
         <v>2.3</v>
       </c>
       <c r="N41">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="O41">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="P41">
         <v>1.76</v>
@@ -8949,13 +8919,13 @@
         <v>17</v>
       </c>
       <c r="U41">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="V41">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="W41">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X41">
         <v>34</v>
@@ -8976,10 +8946,10 @@
         <v>10.5</v>
       </c>
       <c r="AD41">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE41">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AF41">
         <v>17.5</v>
@@ -9006,28 +8976,28 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AN41">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO41">
         <v>18</v>
       </c>
       <c r="AP41">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AQ41">
         <v>60</v>
       </c>
       <c r="AR41">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AS41">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AT41">
         <v>16</v>
       </c>
       <c r="AU41">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AV41">
         <v>28</v>
@@ -9042,10 +9012,10 @@
         <v>90</v>
       </c>
       <c r="AZ41">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="BA41">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BB41">
         <v>44</v>
@@ -9054,7 +9024,7 @@
         <v>50</v>
       </c>
       <c r="BD41">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="BE41">
         <v>980</v>
@@ -9101,16 +9071,16 @@
         <v>188</v>
       </c>
       <c r="F42">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="H42">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I42">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="J42">
         <v>3.6</v>
@@ -9119,19 +9089,19 @@
         <v>3.65</v>
       </c>
       <c r="L42">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="M42">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="N42">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O42">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="P42">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q42">
         <v>1.71</v>
@@ -9140,13 +9110,13 @@
         <v>2.4</v>
       </c>
       <c r="S42">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U42">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V42">
         <v>12</v>
@@ -9167,16 +9137,16 @@
         <v>36</v>
       </c>
       <c r="AB42">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC42">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD42">
         <v>7.8</v>
       </c>
       <c r="AE42">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AF42">
         <v>11</v>
@@ -9188,13 +9158,13 @@
         <v>23</v>
       </c>
       <c r="AI42">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ42">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK42">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL42">
         <v>12</v>
@@ -9203,16 +9173,16 @@
         <v>13</v>
       </c>
       <c r="AN42">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO42">
         <v>15.5</v>
       </c>
       <c r="AP42">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ42">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AR42">
         <v>42</v>
@@ -9239,19 +9209,19 @@
         <v>75</v>
       </c>
       <c r="AZ42">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA42">
         <v>23</v>
       </c>
       <c r="BB42">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="BC42">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="BD42">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="BE42">
         <v>980</v>
@@ -9301,40 +9271,40 @@
         <v>5.7</v>
       </c>
       <c r="G43">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H43">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="I43">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="J43">
         <v>3.85</v>
       </c>
       <c r="K43">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L43">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="M43">
+        <v>2.16</v>
+      </c>
+      <c r="N43">
+        <v>1.86</v>
+      </c>
+      <c r="O43">
         <v>2.14</v>
       </c>
-      <c r="N43">
-        <v>1.9</v>
-      </c>
-      <c r="O43">
-        <v>2.1</v>
-      </c>
       <c r="P43">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q43">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="R43">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S43">
         <v>2.14</v>
@@ -9346,31 +9316,31 @@
         <v>980</v>
       </c>
       <c r="V43">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="W43">
         <v>10</v>
       </c>
       <c r="X43">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Y43">
         <v>11.5</v>
       </c>
       <c r="Z43">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA43">
         <v>19.5</v>
       </c>
       <c r="AB43">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AC43">
         <v>980</v>
       </c>
       <c r="AD43">
-        <v>7.2</v>
+        <v>3.25</v>
       </c>
       <c r="AE43">
         <v>980</v>
@@ -9382,7 +9352,7 @@
         <v>980</v>
       </c>
       <c r="AH43">
-        <v>4</v>
+        <v>14.5</v>
       </c>
       <c r="AI43">
         <v>22</v>
@@ -9391,16 +9361,16 @@
         <v>4</v>
       </c>
       <c r="AK43">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL43">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AM43">
         <v>980</v>
       </c>
       <c r="AN43">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AO43">
         <v>980</v>
@@ -9421,13 +9391,13 @@
         <v>4.2</v>
       </c>
       <c r="AU43">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AV43">
         <v>4.2</v>
       </c>
       <c r="AW43">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AX43">
         <v>4.2</v>
@@ -9436,16 +9406,16 @@
         <v>1000</v>
       </c>
       <c r="AZ43">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="BA43">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="BB43">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="BC43">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="BD43">
         <v>4.3</v>
@@ -9495,7 +9465,7 @@
         <v>190</v>
       </c>
       <c r="F44">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G44">
         <v>1.24</v>
@@ -9504,37 +9474,37 @@
         <v>17</v>
       </c>
       <c r="I44">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="J44">
         <v>7.2</v>
       </c>
       <c r="K44">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L44">
-        <v>1.58</v>
+        <v>2.52</v>
       </c>
       <c r="M44">
-        <v>3.6</v>
+        <v>2.74</v>
       </c>
       <c r="N44">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="O44">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="P44">
-        <v>1.95</v>
+        <v>2.28</v>
       </c>
       <c r="Q44">
-        <v>9.4</v>
+        <v>2.48</v>
       </c>
       <c r="R44">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="S44">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="T44">
         <v>4.3</v>
@@ -9558,7 +9528,7 @@
         <v>5</v>
       </c>
       <c r="AA44">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB44">
         <v>8.4</v>
@@ -9701,148 +9671,148 @@
         <v>11.5</v>
       </c>
       <c r="I45">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J45">
         <v>5.7</v>
       </c>
       <c r="K45">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="L45">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="M45">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
+        <v>1.67</v>
+      </c>
+      <c r="O45">
+        <v>1.8</v>
+      </c>
+      <c r="P45">
+        <v>2.2</v>
+      </c>
+      <c r="Q45">
+        <v>2.46</v>
+      </c>
+      <c r="R45">
         <v>1.68</v>
       </c>
-      <c r="O45">
-        <v>1.81</v>
-      </c>
-      <c r="P45">
-        <v>2.12</v>
-      </c>
-      <c r="Q45">
-        <v>2.56</v>
-      </c>
-      <c r="R45">
-        <v>1.64</v>
-      </c>
       <c r="S45">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="T45">
-        <v>1.22</v>
+        <v>15</v>
       </c>
       <c r="U45">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="V45">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="W45">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="X45">
-        <v>2.68</v>
+        <v>5.2</v>
       </c>
       <c r="Y45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z45">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="AA45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB45">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC45">
-        <v>980</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD45">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="AE45">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AF45">
-        <v>1.17</v>
+        <v>4.9</v>
       </c>
       <c r="AG45">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AH45">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AI45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ45">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AK45">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AL45">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM45">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AN45">
-        <v>1.17</v>
+        <v>26</v>
       </c>
       <c r="AO45">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AP45">
-        <v>9.6</v>
+        <v>5.2</v>
       </c>
       <c r="AQ45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR45">
-        <v>3.25</v>
+        <v>8</v>
       </c>
       <c r="AS45">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AT45">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="AU45">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AV45">
-        <v>1.17</v>
+        <v>4.9</v>
       </c>
       <c r="AW45">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX45">
-        <v>14</v>
+        <v>5.2</v>
       </c>
       <c r="AY45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ45">
-        <v>1.17</v>
+        <v>2.74</v>
       </c>
       <c r="BA45">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="BB45">
-        <v>1.17</v>
+        <v>5.2</v>
       </c>
       <c r="BC45">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD45">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="BE45">
         <v>1000</v>
@@ -9889,157 +9859,157 @@
         <v>192</v>
       </c>
       <c r="F46">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="G46">
-        <v>1.88</v>
+        <v>1.42</v>
       </c>
       <c r="H46">
-        <v>4.1</v>
+        <v>9.4</v>
       </c>
       <c r="I46">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="J46">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="K46">
-        <v>330</v>
+        <v>5.3</v>
       </c>
       <c r="L46">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="M46">
-        <v>2.46</v>
+        <v>1.93</v>
       </c>
       <c r="N46">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="O46">
-        <v>2.64</v>
+        <v>2.24</v>
       </c>
       <c r="P46">
-        <v>1.15</v>
+        <v>2.5</v>
       </c>
       <c r="Q46">
-        <v>8.199999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="R46">
-        <v>1.15</v>
+        <v>1.58</v>
       </c>
       <c r="S46">
-        <v>7.8</v>
+        <v>1.67</v>
       </c>
       <c r="T46">
-        <v>1.48</v>
+        <v>10</v>
       </c>
       <c r="U46">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="V46">
-        <v>2.32</v>
+        <v>4.7</v>
       </c>
       <c r="W46">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="X46">
-        <v>3</v>
+        <v>5.3</v>
       </c>
       <c r="Y46">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="Z46">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="AA46">
         <v>1000</v>
       </c>
       <c r="AB46">
-        <v>2.92</v>
+        <v>4.9</v>
       </c>
       <c r="AC46">
-        <v>980</v>
+        <v>7.6</v>
       </c>
       <c r="AD46">
-        <v>3.3</v>
+        <v>10.5</v>
       </c>
       <c r="AE46">
-        <v>980</v>
+        <v>14.5</v>
       </c>
       <c r="AF46">
+        <v>5.1</v>
+      </c>
+      <c r="AG46">
+        <v>980</v>
+      </c>
+      <c r="AH46">
         <v>5.4</v>
       </c>
-      <c r="AG46">
-        <v>980</v>
-      </c>
-      <c r="AH46">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AI46">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AJ46">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="AK46">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AL46">
-        <v>4.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AM46">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="AN46">
+        <v>5</v>
+      </c>
+      <c r="AO46">
+        <v>980</v>
+      </c>
+      <c r="AP46">
+        <v>5.4</v>
+      </c>
+      <c r="AQ46">
+        <v>300</v>
+      </c>
+      <c r="AR46">
+        <v>9.6</v>
+      </c>
+      <c r="AS46">
+        <v>13.5</v>
+      </c>
+      <c r="AT46">
+        <v>4.4</v>
+      </c>
+      <c r="AU46">
+        <v>22</v>
+      </c>
+      <c r="AV46">
+        <v>5.1</v>
+      </c>
+      <c r="AW46">
+        <v>70</v>
+      </c>
+      <c r="AX46">
         <v>5.5</v>
       </c>
-      <c r="AO46">
-        <v>980</v>
-      </c>
-      <c r="AP46">
-        <v>16</v>
-      </c>
-      <c r="AQ46">
-        <v>1000</v>
-      </c>
-      <c r="AR46">
-        <v>2.92</v>
-      </c>
-      <c r="AS46">
-        <v>1000</v>
-      </c>
-      <c r="AT46">
-        <v>5.4</v>
-      </c>
-      <c r="AU46">
-        <v>1000</v>
-      </c>
-      <c r="AV46">
-        <v>5.7</v>
-      </c>
-      <c r="AW46">
-        <v>1000</v>
-      </c>
-      <c r="AX46">
-        <v>17</v>
-      </c>
       <c r="AY46">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AZ46">
-        <v>1.01</v>
+        <v>3.35</v>
       </c>
       <c r="BA46">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="BB46">
-        <v>1.01</v>
+        <v>5.5</v>
       </c>
       <c r="BC46">
         <v>1000</v>
       </c>
       <c r="BD46">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="BE46">
         <v>1000</v>
@@ -10086,157 +10056,157 @@
         <v>193</v>
       </c>
       <c r="F47">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="G47">
-        <v>1.87</v>
+        <v>1.45</v>
       </c>
       <c r="H47">
-        <v>5.1</v>
+        <v>11</v>
       </c>
       <c r="I47">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="J47">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="K47">
-        <v>950</v>
+        <v>5.7</v>
       </c>
       <c r="L47">
-        <v>1.47</v>
+        <v>1.77</v>
       </c>
       <c r="M47">
-        <v>2.5</v>
+        <v>1.99</v>
       </c>
       <c r="N47">
-        <v>1.67</v>
+        <v>2.02</v>
       </c>
       <c r="O47">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="P47">
-        <v>1.15</v>
+        <v>2.46</v>
       </c>
       <c r="Q47">
-        <v>8.199999999999999</v>
+        <v>2.82</v>
       </c>
       <c r="R47">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="S47">
-        <v>7.6</v>
+        <v>1.68</v>
       </c>
       <c r="T47">
-        <v>1.46</v>
+        <v>10.5</v>
       </c>
       <c r="U47">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="V47">
-        <v>2.86</v>
+        <v>21</v>
       </c>
       <c r="W47">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="X47">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="Y47">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="Z47">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="AA47">
         <v>1000</v>
       </c>
       <c r="AB47">
-        <v>2.48</v>
+        <v>4.9</v>
       </c>
       <c r="AC47">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD47">
-        <v>2.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE47">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AF47">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="AG47">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AH47">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="AI47">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AJ47">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="AK47">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AL47">
-        <v>3.25</v>
+        <v>8.4</v>
       </c>
       <c r="AM47">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AN47">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AO47">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AP47">
-        <v>7</v>
+        <v>4.7</v>
       </c>
       <c r="AQ47">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AR47">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="AS47">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AT47">
-        <v>5.9</v>
+        <v>13.5</v>
       </c>
       <c r="AU47">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AV47">
-        <v>14</v>
+        <v>4.5</v>
       </c>
       <c r="AW47">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AX47">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="AY47">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AZ47">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="BA47">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="BB47">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="BC47">
         <v>1000</v>
       </c>
       <c r="BD47">
-        <v>1.03</v>
+        <v>4.8</v>
       </c>
       <c r="BE47">
         <v>1000</v>
@@ -10283,157 +10253,157 @@
         <v>194</v>
       </c>
       <c r="F48">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="G48">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="H48">
         <v>6.8</v>
       </c>
       <c r="I48">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J48">
         <v>4.1</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L48">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="M48">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="O48">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="P48">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q48">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="R48">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="S48">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T48">
-        <v>1.17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="U48">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="V48">
-        <v>1.17</v>
+        <v>15.5</v>
       </c>
       <c r="W48">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="X48">
-        <v>1.17</v>
+        <v>4.3</v>
       </c>
       <c r="Y48">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="Z48">
-        <v>1.17</v>
+        <v>4.5</v>
       </c>
       <c r="AA48">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB48">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC48">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD48">
         <v>9</v>
       </c>
       <c r="AE48">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AF48">
-        <v>1.17</v>
+        <v>24</v>
       </c>
       <c r="AG48">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH48">
-        <v>1.17</v>
+        <v>4.4</v>
       </c>
       <c r="AI48">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ48">
-        <v>1.17</v>
+        <v>7.2</v>
       </c>
       <c r="AK48">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AL48">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM48">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AN48">
-        <v>5.7</v>
+        <v>21</v>
       </c>
       <c r="AO48">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AP48">
-        <v>1.17</v>
+        <v>4.4</v>
       </c>
       <c r="AQ48">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AR48">
-        <v>1.17</v>
+        <v>10.5</v>
       </c>
       <c r="AS48">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AT48">
-        <v>1.17</v>
+        <v>14.5</v>
       </c>
       <c r="AU48">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AV48">
-        <v>1.17</v>
+        <v>4.2</v>
       </c>
       <c r="AW48">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AX48">
-        <v>1.17</v>
+        <v>4.5</v>
       </c>
       <c r="AY48">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AZ48">
-        <v>1.09</v>
+        <v>3.3</v>
       </c>
       <c r="BA48">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BB48">
-        <v>1.17</v>
+        <v>4.5</v>
       </c>
       <c r="BC48">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BD48">
-        <v>1.17</v>
+        <v>4.6</v>
       </c>
       <c r="BE48">
         <v>1000</v>
@@ -10480,7 +10450,7 @@
         <v>195</v>
       </c>
       <c r="F49">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="G49">
         <v>1.38</v>
@@ -10495,10 +10465,10 @@
         <v>5.3</v>
       </c>
       <c r="K49">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L49">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="M49">
         <v>2.36</v>
@@ -10507,19 +10477,19 @@
         <v>1.73</v>
       </c>
       <c r="O49">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P49">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q49">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R49">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="S49">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T49">
         <v>17</v>
@@ -10528,19 +10498,19 @@
         <v>23</v>
       </c>
       <c r="V49">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="W49">
         <v>42</v>
       </c>
       <c r="X49">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y49">
         <v>980</v>
       </c>
       <c r="Z49">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA49">
         <v>980</v>
@@ -10558,13 +10528,13 @@
         <v>15.5</v>
       </c>
       <c r="AF49">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AG49">
         <v>55</v>
       </c>
       <c r="AH49">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AI49">
         <v>980</v>
@@ -10588,7 +10558,7 @@
         <v>40</v>
       </c>
       <c r="AP49">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AQ49">
         <v>980</v>
@@ -10603,16 +10573,16 @@
         <v>13</v>
       </c>
       <c r="AU49">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AV49">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AW49">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AX49">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AY49">
         <v>980</v>
@@ -10624,13 +10594,13 @@
         <v>6.8</v>
       </c>
       <c r="BB49">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="BC49">
         <v>980</v>
       </c>
       <c r="BD49">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BE49">
         <v>1000</v>
@@ -10677,157 +10647,157 @@
         <v>196</v>
       </c>
       <c r="F50">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="G50">
-        <v>1.46</v>
+        <v>1.23</v>
       </c>
       <c r="H50">
-        <v>7.8</v>
+        <v>21</v>
       </c>
       <c r="I50">
-        <v>870</v>
+        <v>36</v>
       </c>
       <c r="J50">
-        <v>4.8</v>
+        <v>7</v>
       </c>
       <c r="K50">
-        <v>950</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L50">
-        <v>1.67</v>
+        <v>2.14</v>
       </c>
       <c r="M50">
-        <v>2.94</v>
+        <v>2.46</v>
       </c>
       <c r="N50">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="O50">
-        <v>2.48</v>
+        <v>1.87</v>
       </c>
       <c r="P50">
-        <v>1.15</v>
+        <v>2.78</v>
       </c>
       <c r="Q50">
-        <v>9.4</v>
+        <v>3.05</v>
       </c>
       <c r="R50">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="S50">
-        <v>7.6</v>
+        <v>1.54</v>
       </c>
       <c r="T50">
+        <v>5.8</v>
+      </c>
+      <c r="U50">
+        <v>980</v>
+      </c>
+      <c r="V50">
+        <v>2.6</v>
+      </c>
+      <c r="W50">
+        <v>980</v>
+      </c>
+      <c r="X50">
+        <v>1.93</v>
+      </c>
+      <c r="Y50">
+        <v>1000</v>
+      </c>
+      <c r="Z50">
+        <v>1.3</v>
+      </c>
+      <c r="AA50">
+        <v>1000</v>
+      </c>
+      <c r="AB50">
+        <v>6.6</v>
+      </c>
+      <c r="AC50">
+        <v>980</v>
+      </c>
+      <c r="AD50">
+        <v>5.5</v>
+      </c>
+      <c r="AE50">
+        <v>980</v>
+      </c>
+      <c r="AF50">
+        <v>2.64</v>
+      </c>
+      <c r="AG50">
+        <v>980</v>
+      </c>
+      <c r="AH50">
+        <v>1.29</v>
+      </c>
+      <c r="AI50">
+        <v>1000</v>
+      </c>
+      <c r="AJ50">
+        <v>5.3</v>
+      </c>
+      <c r="AK50">
+        <v>6.8</v>
+      </c>
+      <c r="AL50">
+        <v>5</v>
+      </c>
+      <c r="AM50">
+        <v>980</v>
+      </c>
+      <c r="AN50">
+        <v>7</v>
+      </c>
+      <c r="AO50">
+        <v>980</v>
+      </c>
+      <c r="AP50">
+        <v>1.92</v>
+      </c>
+      <c r="AQ50">
+        <v>1000</v>
+      </c>
+      <c r="AR50">
+        <v>6.6</v>
+      </c>
+      <c r="AS50">
+        <v>8.6</v>
+      </c>
+      <c r="AT50">
+        <v>13</v>
+      </c>
+      <c r="AU50">
+        <v>18</v>
+      </c>
+      <c r="AV50">
+        <v>2.62</v>
+      </c>
+      <c r="AW50">
+        <v>75</v>
+      </c>
+      <c r="AX50">
         <v>1.39</v>
       </c>
-      <c r="U50">
-        <v>980</v>
-      </c>
-      <c r="V50">
-        <v>2.52</v>
-      </c>
-      <c r="W50">
-        <v>980</v>
-      </c>
-      <c r="X50">
-        <v>2.76</v>
-      </c>
-      <c r="Y50">
-        <v>1000</v>
-      </c>
-      <c r="Z50">
-        <v>4.3</v>
-      </c>
-      <c r="AA50">
-        <v>1000</v>
-      </c>
-      <c r="AB50">
-        <v>2.58</v>
-      </c>
-      <c r="AC50">
-        <v>980</v>
-      </c>
-      <c r="AD50">
-        <v>3.3</v>
-      </c>
-      <c r="AE50">
-        <v>980</v>
-      </c>
-      <c r="AF50">
-        <v>3.6</v>
-      </c>
-      <c r="AG50">
-        <v>980</v>
-      </c>
-      <c r="AH50">
-        <v>6.8</v>
-      </c>
-      <c r="AI50">
-        <v>1000</v>
-      </c>
-      <c r="AJ50">
-        <v>2.94</v>
-      </c>
-      <c r="AK50">
-        <v>1000</v>
-      </c>
-      <c r="AL50">
-        <v>4.5</v>
-      </c>
-      <c r="AM50">
-        <v>980</v>
-      </c>
-      <c r="AN50">
-        <v>7.6</v>
-      </c>
-      <c r="AO50">
-        <v>980</v>
-      </c>
-      <c r="AP50">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AQ50">
-        <v>1000</v>
-      </c>
-      <c r="AR50">
-        <v>3.25</v>
-      </c>
-      <c r="AS50">
-        <v>1000</v>
-      </c>
-      <c r="AT50">
-        <v>4.2</v>
-      </c>
-      <c r="AU50">
-        <v>1000</v>
-      </c>
-      <c r="AV50">
-        <v>7.8</v>
-      </c>
-      <c r="AW50">
-        <v>1000</v>
-      </c>
-      <c r="AX50">
-        <v>8.6</v>
-      </c>
       <c r="AY50">
         <v>1000</v>
       </c>
       <c r="AZ50">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="BA50">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="BB50">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="BC50">
         <v>1000</v>
       </c>
       <c r="BD50">
-        <v>1.1</v>
+        <v>1.21</v>
       </c>
       <c r="BE50">
         <v>1000</v>
@@ -10874,157 +10844,157 @@
         <v>197</v>
       </c>
       <c r="F51">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="G51">
-        <v>2.46</v>
+        <v>1.97</v>
       </c>
       <c r="H51">
+        <v>4.9</v>
+      </c>
+      <c r="I51">
+        <v>6.4</v>
+      </c>
+      <c r="J51">
+        <v>3.35</v>
+      </c>
+      <c r="K51">
+        <v>3.7</v>
+      </c>
+      <c r="L51">
+        <v>1.62</v>
+      </c>
+      <c r="M51">
+        <v>1.79</v>
+      </c>
+      <c r="N51">
+        <v>2.28</v>
+      </c>
+      <c r="O51">
+        <v>2.6</v>
+      </c>
+      <c r="P51">
+        <v>2.12</v>
+      </c>
+      <c r="Q51">
+        <v>2.28</v>
+      </c>
+      <c r="R51">
+        <v>1.78</v>
+      </c>
+      <c r="S51">
+        <v>1.9</v>
+      </c>
+      <c r="T51">
+        <v>8.6</v>
+      </c>
+      <c r="U51">
+        <v>12.5</v>
+      </c>
+      <c r="V51">
+        <v>11.5</v>
+      </c>
+      <c r="W51">
+        <v>17</v>
+      </c>
+      <c r="X51">
+        <v>4</v>
+      </c>
+      <c r="Y51">
+        <v>46</v>
+      </c>
+      <c r="Z51">
+        <v>4.3</v>
+      </c>
+      <c r="AA51">
+        <v>1000</v>
+      </c>
+      <c r="AB51">
+        <v>6.4</v>
+      </c>
+      <c r="AC51">
+        <v>8.4</v>
+      </c>
+      <c r="AD51">
+        <v>7.2</v>
+      </c>
+      <c r="AE51">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AF51">
         <v>3.8</v>
       </c>
-      <c r="I51">
-        <v>6.6</v>
-      </c>
-      <c r="J51">
-        <v>3.05</v>
-      </c>
-      <c r="K51">
-        <v>7.2</v>
-      </c>
-      <c r="L51">
-        <v>1.27</v>
-      </c>
-      <c r="M51">
-        <v>15.5</v>
-      </c>
-      <c r="N51">
-        <v>1.07</v>
-      </c>
-      <c r="O51">
-        <v>4.6</v>
-      </c>
-      <c r="P51">
-        <v>1.15</v>
-      </c>
-      <c r="Q51">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="R51">
-        <v>1.15</v>
-      </c>
-      <c r="S51">
-        <v>7.8</v>
-      </c>
-      <c r="T51">
-        <v>1.03</v>
-      </c>
-      <c r="U51">
-        <v>1000</v>
-      </c>
-      <c r="V51">
-        <v>1.03</v>
-      </c>
-      <c r="W51">
-        <v>1000</v>
-      </c>
-      <c r="X51">
-        <v>1.03</v>
-      </c>
-      <c r="Y51">
-        <v>1000</v>
-      </c>
-      <c r="Z51">
-        <v>3.1</v>
-      </c>
-      <c r="AA51">
-        <v>1000</v>
-      </c>
-      <c r="AB51">
-        <v>6</v>
-      </c>
-      <c r="AC51">
-        <v>1000</v>
-      </c>
-      <c r="AD51">
-        <v>1.03</v>
-      </c>
-      <c r="AE51">
-        <v>1000</v>
-      </c>
-      <c r="AF51">
-        <v>1.03</v>
-      </c>
       <c r="AG51">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH51">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="AI51">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ51">
-        <v>1.03</v>
+        <v>9</v>
       </c>
       <c r="AK51">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AL51">
-        <v>1.03</v>
+        <v>9.6</v>
       </c>
       <c r="AM51">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AN51">
-        <v>1.03</v>
+        <v>3.9</v>
       </c>
       <c r="AO51">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AP51">
-        <v>15.5</v>
+        <v>4.3</v>
       </c>
       <c r="AQ51">
         <v>1000</v>
       </c>
       <c r="AR51">
-        <v>1.03</v>
+        <v>3.8</v>
       </c>
       <c r="AS51">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AT51">
-        <v>1.03</v>
+        <v>3.85</v>
       </c>
       <c r="AU51">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AV51">
-        <v>11.5</v>
+        <v>4.1</v>
       </c>
       <c r="AW51">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AX51">
-        <v>12.5</v>
+        <v>4.3</v>
       </c>
       <c r="AY51">
         <v>1000</v>
       </c>
       <c r="AZ51">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="BA51">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="BB51">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="BC51">
         <v>1000</v>
       </c>
       <c r="BD51">
-        <v>1.03</v>
+        <v>4.4</v>
       </c>
       <c r="BE51">
         <v>1000</v>
@@ -11071,157 +11041,157 @@
         <v>198</v>
       </c>
       <c r="F52">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="G52">
-        <v>1.45</v>
+        <v>1.11</v>
       </c>
       <c r="H52">
-        <v>7.8</v>
+        <v>34</v>
       </c>
       <c r="I52">
         <v>870</v>
       </c>
       <c r="J52">
-        <v>5.6</v>
+        <v>12</v>
       </c>
       <c r="K52">
-        <v>950</v>
+        <v>19.5</v>
       </c>
       <c r="L52">
+        <v>3.35</v>
+      </c>
+      <c r="M52">
+        <v>4.1</v>
+      </c>
+      <c r="N52">
+        <v>1.32</v>
+      </c>
+      <c r="O52">
+        <v>1.42</v>
+      </c>
+      <c r="P52">
+        <v>2.64</v>
+      </c>
+      <c r="Q52">
+        <v>3.1</v>
+      </c>
+      <c r="R52">
+        <v>1.47</v>
+      </c>
+      <c r="S52">
+        <v>1.61</v>
+      </c>
+      <c r="T52">
+        <v>1.37</v>
+      </c>
+      <c r="U52">
+        <v>55</v>
+      </c>
+      <c r="V52">
+        <v>1.41</v>
+      </c>
+      <c r="W52">
+        <v>1000</v>
+      </c>
+      <c r="X52">
+        <v>1.41</v>
+      </c>
+      <c r="Y52">
+        <v>1000</v>
+      </c>
+      <c r="Z52">
+        <v>1.41</v>
+      </c>
+      <c r="AA52">
+        <v>1000</v>
+      </c>
+      <c r="AB52">
+        <v>5.5</v>
+      </c>
+      <c r="AC52">
+        <v>14.5</v>
+      </c>
+      <c r="AD52">
+        <v>1.89</v>
+      </c>
+      <c r="AE52">
+        <v>38</v>
+      </c>
+      <c r="AF52">
+        <v>1.39</v>
+      </c>
+      <c r="AG52">
+        <v>1000</v>
+      </c>
+      <c r="AH52">
+        <v>1.41</v>
+      </c>
+      <c r="AI52">
+        <v>1000</v>
+      </c>
+      <c r="AJ52">
+        <v>6.4</v>
+      </c>
+      <c r="AK52">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AL52">
+        <v>6</v>
+      </c>
+      <c r="AM52">
+        <v>19</v>
+      </c>
+      <c r="AN52">
+        <v>1.65</v>
+      </c>
+      <c r="AO52">
+        <v>1000</v>
+      </c>
+      <c r="AP52">
+        <v>1.41</v>
+      </c>
+      <c r="AQ52">
+        <v>1000</v>
+      </c>
+      <c r="AR52">
+        <v>6</v>
+      </c>
+      <c r="AS52">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AT52">
+        <v>5.9</v>
+      </c>
+      <c r="AU52">
+        <v>17.5</v>
+      </c>
+      <c r="AV52">
+        <v>1.9</v>
+      </c>
+      <c r="AW52">
+        <v>75</v>
+      </c>
+      <c r="AX52">
+        <v>1.41</v>
+      </c>
+      <c r="AY52">
+        <v>1000</v>
+      </c>
+      <c r="AZ52">
+        <v>1.99</v>
+      </c>
+      <c r="BA52">
         <v>2.56</v>
       </c>
-      <c r="M52">
-        <v>8.6</v>
-      </c>
-      <c r="N52">
-        <v>1.13</v>
-      </c>
-      <c r="O52">
-        <v>1.65</v>
-      </c>
-      <c r="P52">
-        <v>1.15</v>
-      </c>
-      <c r="Q52">
-        <v>9.4</v>
-      </c>
-      <c r="R52">
-        <v>1.15</v>
-      </c>
-      <c r="S52">
-        <v>7.6</v>
-      </c>
-      <c r="T52">
-        <v>1.49</v>
-      </c>
-      <c r="U52">
-        <v>1000</v>
-      </c>
-      <c r="V52">
-        <v>2.7</v>
-      </c>
-      <c r="W52">
-        <v>1000</v>
-      </c>
-      <c r="X52">
-        <v>1.03</v>
-      </c>
-      <c r="Y52">
-        <v>1000</v>
-      </c>
-      <c r="Z52">
-        <v>1.03</v>
-      </c>
-      <c r="AA52">
-        <v>1000</v>
-      </c>
-      <c r="AB52">
-        <v>2.86</v>
-      </c>
-      <c r="AC52">
-        <v>1000</v>
-      </c>
-      <c r="AD52">
-        <v>2.8</v>
-      </c>
-      <c r="AE52">
-        <v>1000</v>
-      </c>
-      <c r="AF52">
-        <v>1.03</v>
-      </c>
-      <c r="AG52">
-        <v>1000</v>
-      </c>
-      <c r="AH52">
-        <v>1.03</v>
-      </c>
-      <c r="AI52">
-        <v>1000</v>
-      </c>
-      <c r="AJ52">
-        <v>2.72</v>
-      </c>
-      <c r="AK52">
-        <v>1000</v>
-      </c>
-      <c r="AL52">
-        <v>2.96</v>
-      </c>
-      <c r="AM52">
-        <v>1000</v>
-      </c>
-      <c r="AN52">
-        <v>1.03</v>
-      </c>
-      <c r="AO52">
-        <v>1000</v>
-      </c>
-      <c r="AP52">
-        <v>1.03</v>
-      </c>
-      <c r="AQ52">
-        <v>1000</v>
-      </c>
-      <c r="AR52">
-        <v>3.9</v>
-      </c>
-      <c r="AS52">
-        <v>1000</v>
-      </c>
-      <c r="AT52">
-        <v>4.2</v>
-      </c>
-      <c r="AU52">
-        <v>1000</v>
-      </c>
-      <c r="AV52">
-        <v>1.03</v>
-      </c>
-      <c r="AW52">
-        <v>1000</v>
-      </c>
-      <c r="AX52">
-        <v>1.03</v>
-      </c>
-      <c r="AY52">
-        <v>1000</v>
-      </c>
-      <c r="AZ52">
-        <v>1.01</v>
-      </c>
-      <c r="BA52">
-        <v>1000</v>
-      </c>
       <c r="BB52">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="BC52">
         <v>1000</v>
       </c>
       <c r="BD52">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="BE52">
         <v>1000</v>
@@ -11271,43 +11241,43 @@
         <v>1.72</v>
       </c>
       <c r="G53">
+        <v>1.85</v>
+      </c>
+      <c r="H53">
+        <v>4.8</v>
+      </c>
+      <c r="I53">
+        <v>6</v>
+      </c>
+      <c r="J53">
+        <v>3.75</v>
+      </c>
+      <c r="K53">
+        <v>4.6</v>
+      </c>
+      <c r="L53">
+        <v>1.96</v>
+      </c>
+      <c r="M53">
+        <v>2.16</v>
+      </c>
+      <c r="N53">
         <v>1.87</v>
       </c>
-      <c r="H53">
-        <v>4.5</v>
-      </c>
-      <c r="I53">
-        <v>5.8</v>
-      </c>
-      <c r="J53">
-        <v>3.65</v>
-      </c>
-      <c r="K53">
-        <v>4.5</v>
-      </c>
-      <c r="L53">
-        <v>1.94</v>
-      </c>
-      <c r="M53">
+      <c r="O53">
+        <v>2.06</v>
+      </c>
+      <c r="P53">
+        <v>1.85</v>
+      </c>
+      <c r="Q53">
+        <v>2.02</v>
+      </c>
+      <c r="R53">
+        <v>1.99</v>
+      </c>
+      <c r="S53">
         <v>2.18</v>
-      </c>
-      <c r="N53">
-        <v>1.84</v>
-      </c>
-      <c r="O53">
-        <v>2.08</v>
-      </c>
-      <c r="P53">
-        <v>1.8</v>
-      </c>
-      <c r="Q53">
-        <v>2.06</v>
-      </c>
-      <c r="R53">
-        <v>1.96</v>
-      </c>
-      <c r="S53">
-        <v>2.26</v>
       </c>
       <c r="T53">
         <v>13</v>
@@ -11319,16 +11289,16 @@
         <v>14.5</v>
       </c>
       <c r="W53">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X53">
-        <v>29</v>
+        <v>5.7</v>
       </c>
       <c r="Y53">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z53">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AA53">
         <v>980</v>
@@ -11337,19 +11307,19 @@
         <v>7.8</v>
       </c>
       <c r="AC53">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD53">
         <v>8</v>
       </c>
       <c r="AE53">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AF53">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG53">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH53">
         <v>6</v>
@@ -11376,7 +11346,7 @@
         <v>23</v>
       </c>
       <c r="AP53">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AQ53">
         <v>80</v>
@@ -11400,22 +11370,22 @@
         <v>40</v>
       </c>
       <c r="AX53">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AY53">
         <v>980</v>
       </c>
       <c r="AZ53">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="BA53">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="BB53">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="BC53">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="BD53">
         <v>6.6</v>
